--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-16.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="351">
   <si>
     <t>League</t>
   </si>
@@ -649,6 +649,9 @@
     <t>1.227573214</t>
   </si>
   <si>
+    <t>1.227572206</t>
+  </si>
+  <si>
     <t>1.227563758</t>
   </si>
   <si>
@@ -850,12 +853,99 @@
     <t>1.227573829</t>
   </si>
   <si>
+    <t>1.227410856</t>
+  </si>
+  <si>
+    <t>1.227422520</t>
+  </si>
+  <si>
+    <t>1.227591995</t>
+  </si>
+  <si>
+    <t>1.227573388</t>
+  </si>
+  <si>
+    <t>1.227573208</t>
+  </si>
+  <si>
+    <t>1.227587316</t>
+  </si>
+  <si>
+    <t>1.227573478</t>
+  </si>
+  <si>
+    <t>1.227573298</t>
+  </si>
+  <si>
+    <t>1.227572290</t>
+  </si>
+  <si>
+    <t>1.227563842</t>
+  </si>
+  <si>
+    <t>1.227562604</t>
+  </si>
+  <si>
+    <t>1.227498306</t>
+  </si>
+  <si>
+    <t>1.227445519</t>
+  </si>
+  <si>
+    <t>1.227563752</t>
+  </si>
+  <si>
+    <t>1.227496671</t>
+  </si>
+  <si>
+    <t>1.227498000</t>
+  </si>
+  <si>
+    <t>1.227563934</t>
+  </si>
+  <si>
+    <t>1.227497802</t>
+  </si>
+  <si>
+    <t>1.227496851</t>
+  </si>
+  <si>
+    <t>1.227495477</t>
+  </si>
+  <si>
+    <t>1.227563662</t>
+  </si>
+  <si>
+    <t>1.227496563</t>
+  </si>
+  <si>
+    <t>1.227495803</t>
+  </si>
+  <si>
+    <t>1.227495585</t>
+  </si>
+  <si>
+    <t>1.227495367</t>
+  </si>
+  <si>
+    <t>1.227495694</t>
+  </si>
+  <si>
+    <t>1.227393421</t>
+  </si>
+  <si>
     <t>1.227432092</t>
   </si>
   <si>
     <t>1.227431951</t>
   </si>
   <si>
+    <t>1.227495911</t>
+  </si>
+  <si>
+    <t>1.227577041</t>
+  </si>
+  <si>
     <t>1.227353368</t>
   </si>
   <si>
@@ -871,10 +961,97 @@
     <t>1.227583198</t>
   </si>
   <si>
+    <t>1.227410781</t>
+  </si>
+  <si>
+    <t>1.227422445</t>
+  </si>
+  <si>
+    <t>1.227591920</t>
+  </si>
+  <si>
+    <t>1.227573313</t>
+  </si>
+  <si>
+    <t>1.227573133</t>
+  </si>
+  <si>
+    <t>1.227587241</t>
+  </si>
+  <si>
+    <t>1.227573403</t>
+  </si>
+  <si>
+    <t>1.227573223</t>
+  </si>
+  <si>
+    <t>1.227572215</t>
+  </si>
+  <si>
+    <t>1.227563767</t>
+  </si>
+  <si>
+    <t>1.227562614</t>
+  </si>
+  <si>
+    <t>1.227498396</t>
+  </si>
+  <si>
+    <t>1.227445529</t>
+  </si>
+  <si>
+    <t>1.227563677</t>
+  </si>
+  <si>
+    <t>1.227496681</t>
+  </si>
+  <si>
+    <t>1.227497925</t>
+  </si>
+  <si>
+    <t>1.227563859</t>
+  </si>
+  <si>
+    <t>1.227497727</t>
+  </si>
+  <si>
+    <t>1.227496776</t>
+  </si>
+  <si>
+    <t>1.227495487</t>
+  </si>
+  <si>
+    <t>1.227563587</t>
+  </si>
+  <si>
+    <t>1.227496573</t>
+  </si>
+  <si>
+    <t>1.227495813</t>
+  </si>
+  <si>
+    <t>1.227495595</t>
+  </si>
+  <si>
+    <t>1.227495377</t>
+  </si>
+  <si>
+    <t>1.227495704</t>
+  </si>
+  <si>
+    <t>1.227393346</t>
+  </si>
+  <si>
     <t>1.227432103</t>
   </si>
   <si>
     <t>1.227431962</t>
+  </si>
+  <si>
+    <t>1.227495921</t>
+  </si>
+  <si>
+    <t>1.227576966</t>
   </si>
   <si>
     <t>1.227353293</t>
@@ -1467,160 +1644,160 @@
         <v>127</v>
       </c>
       <c r="F2">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="G2">
         <v>3.2</v>
       </c>
       <c r="H2">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="I2">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J2">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K2">
+        <v>3.95</v>
+      </c>
+      <c r="L2">
+        <v>1.98</v>
+      </c>
+      <c r="M2">
+        <v>2.18</v>
+      </c>
+      <c r="N2">
+        <v>1.85</v>
+      </c>
+      <c r="O2">
+        <v>2.02</v>
+      </c>
+      <c r="P2">
+        <v>1.68</v>
+      </c>
+      <c r="Q2">
+        <v>1.88</v>
+      </c>
+      <c r="R2">
+        <v>2.14</v>
+      </c>
+      <c r="S2">
+        <v>2.48</v>
+      </c>
+      <c r="T2">
+        <v>11</v>
+      </c>
+      <c r="U2">
+        <v>18</v>
+      </c>
+      <c r="V2">
+        <v>8.6</v>
+      </c>
+      <c r="W2">
+        <v>14.5</v>
+      </c>
+      <c r="X2">
+        <v>12.5</v>
+      </c>
+      <c r="Y2">
+        <v>21</v>
+      </c>
+      <c r="Z2">
+        <v>3.9</v>
+      </c>
+      <c r="AA2">
+        <v>44</v>
+      </c>
+      <c r="AB2">
+        <v>10.5</v>
+      </c>
+      <c r="AC2">
+        <v>15.5</v>
+      </c>
+      <c r="AD2">
+        <v>7</v>
+      </c>
+      <c r="AE2">
+        <v>10</v>
+      </c>
+      <c r="AF2">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG2">
+        <v>14.5</v>
+      </c>
+      <c r="AH2">
+        <v>21</v>
+      </c>
+      <c r="AI2">
+        <v>34</v>
+      </c>
+      <c r="AJ2">
+        <v>16.5</v>
+      </c>
+      <c r="AK2">
+        <v>25</v>
+      </c>
+      <c r="AL2">
+        <v>10.5</v>
+      </c>
+      <c r="AM2">
+        <v>16</v>
+      </c>
+      <c r="AN2">
+        <v>14</v>
+      </c>
+      <c r="AO2">
+        <v>22</v>
+      </c>
+      <c r="AP2">
+        <v>3.95</v>
+      </c>
+      <c r="AQ2">
+        <v>48</v>
+      </c>
+      <c r="AR2">
+        <v>4</v>
+      </c>
+      <c r="AS2">
+        <v>60</v>
+      </c>
+      <c r="AT2">
+        <v>23</v>
+      </c>
+      <c r="AU2">
+        <v>40</v>
+      </c>
+      <c r="AV2">
+        <v>3.95</v>
+      </c>
+      <c r="AW2">
+        <v>55</v>
+      </c>
+      <c r="AX2">
         <v>4.1</v>
       </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>2.28</v>
-      </c>
-      <c r="N2">
-        <v>1.79</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
       <c r="AY2">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="BF2" t="s">
         <v>165</v>
@@ -1638,13 +1815,13 @@
         <v>203</v>
       </c>
       <c r="BK2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
+        <v>241</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>279</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1664,160 +1841,160 @@
         <v>128</v>
       </c>
       <c r="F3">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="G3">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H3">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="J3">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K3">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L3">
+        <v>2.1</v>
+      </c>
+      <c r="M3">
+        <v>2.38</v>
+      </c>
+      <c r="N3">
+        <v>1.72</v>
+      </c>
+      <c r="O3">
+        <v>1.91</v>
+      </c>
+      <c r="P3">
+        <v>1.88</v>
+      </c>
+      <c r="Q3">
+        <v>1.99</v>
+      </c>
+      <c r="R3">
+        <v>2.02</v>
+      </c>
+      <c r="S3">
         <v>2.14</v>
       </c>
-      <c r="M3">
-        <v>2.42</v>
-      </c>
-      <c r="N3">
-        <v>1.71</v>
-      </c>
-      <c r="O3">
-        <v>1.88</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF3" t="s">
         <v>166</v>
@@ -1835,13 +2012,13 @@
         <v>204</v>
       </c>
       <c r="BK3" t="s">
-        <v>241</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>280</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1861,160 +2038,160 @@
         <v>129</v>
       </c>
       <c r="F4">
+        <v>2.22</v>
+      </c>
+      <c r="G4">
+        <v>2.36</v>
+      </c>
+      <c r="H4">
+        <v>3.05</v>
+      </c>
+      <c r="I4">
+        <v>3.65</v>
+      </c>
+      <c r="J4">
+        <v>3.4</v>
+      </c>
+      <c r="K4">
+        <v>4.4</v>
+      </c>
+      <c r="L4">
+        <v>2.06</v>
+      </c>
+      <c r="M4">
+        <v>2.34</v>
+      </c>
+      <c r="N4">
+        <v>1.75</v>
+      </c>
+      <c r="O4">
+        <v>1.95</v>
+      </c>
+      <c r="P4">
+        <v>1.67</v>
+      </c>
+      <c r="Q4">
+        <v>1.8</v>
+      </c>
+      <c r="R4">
         <v>2.26</v>
       </c>
-      <c r="G4">
-        <v>3.3</v>
-      </c>
-      <c r="H4">
-        <v>2.58</v>
-      </c>
-      <c r="I4">
-        <v>4.1</v>
-      </c>
-      <c r="J4">
-        <v>3.25</v>
-      </c>
-      <c r="K4">
-        <v>5.9</v>
-      </c>
-      <c r="L4">
-        <v>1.64</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>1.5</v>
-      </c>
-      <c r="O4">
-        <v>2.58</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
       <c r="S4">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF4" t="s">
         <v>167</v>
@@ -2032,13 +2209,13 @@
         <v>205</v>
       </c>
       <c r="BK4" t="s">
-        <v>242</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
+        <v>243</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2058,160 +2235,160 @@
         <v>130</v>
       </c>
       <c r="F5">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="G5">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="H5">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>3.75</v>
+      </c>
+      <c r="K5">
+        <v>9.6</v>
+      </c>
+      <c r="L5">
+        <v>2.3</v>
+      </c>
+      <c r="M5">
+        <v>3.2</v>
+      </c>
+      <c r="N5">
+        <v>1.45</v>
+      </c>
+      <c r="O5">
+        <v>1.76</v>
+      </c>
+      <c r="P5">
+        <v>1.12</v>
+      </c>
+      <c r="Q5">
+        <v>20</v>
+      </c>
+      <c r="R5">
+        <v>1.12</v>
+      </c>
+      <c r="S5">
+        <v>20</v>
+      </c>
+      <c r="T5">
+        <v>1.04</v>
+      </c>
+      <c r="U5">
+        <v>1000</v>
+      </c>
+      <c r="V5">
+        <v>1.04</v>
+      </c>
+      <c r="W5">
+        <v>1000</v>
+      </c>
+      <c r="X5">
+        <v>1.01</v>
+      </c>
+      <c r="Y5">
+        <v>1000</v>
+      </c>
+      <c r="Z5">
+        <v>1.01</v>
+      </c>
+      <c r="AA5">
+        <v>1000</v>
+      </c>
+      <c r="AB5">
+        <v>1.04</v>
+      </c>
+      <c r="AC5">
+        <v>16</v>
+      </c>
+      <c r="AD5">
+        <v>1.17</v>
+      </c>
+      <c r="AE5">
         <v>13.5</v>
       </c>
-      <c r="J5">
-        <v>3.8</v>
-      </c>
-      <c r="K5">
-        <v>11</v>
-      </c>
-      <c r="L5">
-        <v>2.06</v>
-      </c>
-      <c r="M5">
-        <v>4.5</v>
-      </c>
-      <c r="N5">
-        <v>1.28</v>
-      </c>
-      <c r="O5">
-        <v>1.93</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF5" t="s">
         <v>168</v>
@@ -2229,13 +2406,13 @@
         <v>206</v>
       </c>
       <c r="BK5" t="s">
-        <v>243</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>282</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2255,160 +2432,160 @@
         <v>131</v>
       </c>
       <c r="F6">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="G6">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="H6">
         <v>6.2</v>
       </c>
       <c r="I6">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J6">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>2.18</v>
+      </c>
+      <c r="M6">
+        <v>2.74</v>
+      </c>
+      <c r="N6">
+        <v>1.57</v>
+      </c>
+      <c r="O6">
+        <v>1.84</v>
+      </c>
+      <c r="P6">
+        <v>1.12</v>
+      </c>
+      <c r="Q6">
+        <v>20</v>
+      </c>
+      <c r="R6">
+        <v>1.12</v>
+      </c>
+      <c r="S6">
+        <v>20</v>
+      </c>
+      <c r="T6">
+        <v>3.8</v>
+      </c>
+      <c r="U6">
+        <v>980</v>
+      </c>
+      <c r="V6">
+        <v>3.9</v>
+      </c>
+      <c r="W6">
+        <v>980</v>
+      </c>
+      <c r="X6">
+        <v>1.13</v>
+      </c>
+      <c r="Y6">
+        <v>1000</v>
+      </c>
+      <c r="Z6">
+        <v>1.1</v>
+      </c>
+      <c r="AA6">
+        <v>1000</v>
+      </c>
+      <c r="AB6">
+        <v>7.8</v>
+      </c>
+      <c r="AC6">
+        <v>980</v>
+      </c>
+      <c r="AD6">
+        <v>9</v>
+      </c>
+      <c r="AE6">
+        <v>980</v>
+      </c>
+      <c r="AF6">
+        <v>3.9</v>
+      </c>
+      <c r="AG6">
+        <v>980</v>
+      </c>
+      <c r="AH6">
+        <v>1.1</v>
+      </c>
+      <c r="AI6">
+        <v>1000</v>
+      </c>
+      <c r="AJ6">
+        <v>7.2</v>
+      </c>
+      <c r="AK6">
+        <v>12</v>
+      </c>
+      <c r="AL6">
+        <v>7.6</v>
+      </c>
+      <c r="AM6">
+        <v>980</v>
+      </c>
+      <c r="AN6">
+        <v>3.8</v>
+      </c>
+      <c r="AO6">
+        <v>980</v>
+      </c>
+      <c r="AP6">
+        <v>1.1</v>
+      </c>
+      <c r="AQ6">
+        <v>1000</v>
+      </c>
+      <c r="AR6">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AS6">
+        <v>16</v>
+      </c>
+      <c r="AT6">
+        <v>10.5</v>
+      </c>
+      <c r="AU6">
         <v>17.5</v>
       </c>
-      <c r="L6">
-        <v>2.16</v>
-      </c>
-      <c r="M6">
-        <v>4.2</v>
-      </c>
-      <c r="N6">
-        <v>1.31</v>
-      </c>
-      <c r="O6">
-        <v>1.85</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF6" t="s">
         <v>169</v>
@@ -2426,13 +2603,13 @@
         <v>207</v>
       </c>
       <c r="BK6" t="s">
-        <v>244</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>283</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2452,160 +2629,160 @@
         <v>132</v>
       </c>
       <c r="F7">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="G7">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="I7">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="J7">
+        <v>3.55</v>
+      </c>
+      <c r="K7">
+        <v>4.3</v>
+      </c>
+      <c r="L7">
+        <v>2.08</v>
+      </c>
+      <c r="M7">
+        <v>2.4</v>
+      </c>
+      <c r="N7">
+        <v>1.71</v>
+      </c>
+      <c r="O7">
+        <v>1.93</v>
+      </c>
+      <c r="P7">
+        <v>1.62</v>
+      </c>
+      <c r="Q7">
+        <v>1.94</v>
+      </c>
+      <c r="R7">
+        <v>2.18</v>
+      </c>
+      <c r="S7">
+        <v>2.8</v>
+      </c>
+      <c r="T7">
+        <v>3.6</v>
+      </c>
+      <c r="U7">
+        <v>980</v>
+      </c>
+      <c r="V7">
         <v>3.35</v>
       </c>
-      <c r="K7">
-        <v>7.6</v>
-      </c>
-      <c r="L7">
-        <v>1.75</v>
-      </c>
-      <c r="M7">
-        <v>2.76</v>
-      </c>
-      <c r="N7">
-        <v>1.57</v>
-      </c>
-      <c r="O7">
-        <v>2.32</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
       <c r="W7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BE7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF7" t="s">
         <v>170</v>
@@ -2623,13 +2800,13 @@
         <v>208</v>
       </c>
       <c r="BK7" t="s">
-        <v>245</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
+        <v>246</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>284</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2649,160 +2826,160 @@
         <v>133</v>
       </c>
       <c r="F8">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G8">
-        <v>4.9</v>
+        <v>3.55</v>
       </c>
       <c r="H8">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="I8">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="J8">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K8">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N8">
-        <v>1.45</v>
+        <v>1.73</v>
       </c>
       <c r="O8">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF8" t="s">
         <v>171</v>
@@ -2820,13 +2997,13 @@
         <v>209</v>
       </c>
       <c r="BK8" t="s">
-        <v>246</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>285</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -2846,160 +3023,160 @@
         <v>134</v>
       </c>
       <c r="F9">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="G9">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="H9">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="I9">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="J9">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="M9">
-        <v>2.9</v>
+        <v>10.5</v>
       </c>
       <c r="N9">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="O9">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BE9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF9" t="s">
         <v>172</v>
@@ -3017,13 +3194,13 @@
         <v>210</v>
       </c>
       <c r="BK9" t="s">
-        <v>247</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>286</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3043,184 +3220,184 @@
         <v>135</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="L10">
-        <v>1.2</v>
+        <v>1.92</v>
       </c>
       <c r="M10">
-        <v>110</v>
+        <v>2.56</v>
       </c>
       <c r="N10">
+        <v>1.64</v>
+      </c>
+      <c r="O10">
+        <v>2.08</v>
+      </c>
+      <c r="P10">
+        <v>1.67</v>
+      </c>
+      <c r="Q10">
+        <v>2.16</v>
+      </c>
+      <c r="R10">
+        <v>1.86</v>
+      </c>
+      <c r="S10">
+        <v>2.48</v>
+      </c>
+      <c r="T10">
+        <v>2.02</v>
+      </c>
+      <c r="U10">
+        <v>22</v>
+      </c>
+      <c r="V10">
+        <v>1.36</v>
+      </c>
+      <c r="W10">
+        <v>26</v>
+      </c>
+      <c r="X10">
+        <v>1.13</v>
+      </c>
+      <c r="Y10">
+        <v>1000</v>
+      </c>
+      <c r="Z10">
+        <v>1.16</v>
+      </c>
+      <c r="AA10">
+        <v>1000</v>
+      </c>
+      <c r="AB10">
+        <v>3.15</v>
+      </c>
+      <c r="AC10">
+        <v>11.5</v>
+      </c>
+      <c r="AD10">
+        <v>3.15</v>
+      </c>
+      <c r="AE10">
+        <v>12</v>
+      </c>
+      <c r="AF10">
+        <v>1.36</v>
+      </c>
+      <c r="AG10">
+        <v>27</v>
+      </c>
+      <c r="AH10">
+        <v>1.14</v>
+      </c>
+      <c r="AI10">
+        <v>1000</v>
+      </c>
+      <c r="AJ10">
+        <v>3.2</v>
+      </c>
+      <c r="AK10">
+        <v>12.5</v>
+      </c>
+      <c r="AL10">
+        <v>3.2</v>
+      </c>
+      <c r="AM10">
+        <v>12.5</v>
+      </c>
+      <c r="AN10">
+        <v>1.36</v>
+      </c>
+      <c r="AO10">
+        <v>26</v>
+      </c>
+      <c r="AP10">
         <v>1.03</v>
       </c>
-      <c r="O10">
-        <v>6.4</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BE10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF10" t="s">
         <v>173</v>
       </c>
       <c r="BG10">
-        <v>0</v>
+        <v>22975264</v>
       </c>
       <c r="BH10">
-        <v>0</v>
+        <v>184330</v>
       </c>
       <c r="BI10">
-        <v>0</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
+        <v>58805</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>211</v>
       </c>
       <c r="BK10" t="s">
-        <v>248</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
+        <v>249</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>287</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3240,160 +3417,160 @@
         <v>136</v>
       </c>
       <c r="F11">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G11">
-        <v>95</v>
+        <v>10.5</v>
       </c>
       <c r="H11">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="I11">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="J11">
         <v>4.3</v>
       </c>
       <c r="K11">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="M11">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="N11">
+        <v>1.62</v>
+      </c>
+      <c r="O11">
+        <v>1.91</v>
+      </c>
+      <c r="P11">
+        <v>1.12</v>
+      </c>
+      <c r="Q11">
+        <v>2.22</v>
+      </c>
+      <c r="R11">
+        <v>1.12</v>
+      </c>
+      <c r="S11">
+        <v>2.4</v>
+      </c>
+      <c r="T11">
+        <v>1.01</v>
+      </c>
+      <c r="U11">
+        <v>26</v>
+      </c>
+      <c r="V11">
+        <v>3.2</v>
+      </c>
+      <c r="W11">
+        <v>12</v>
+      </c>
+      <c r="X11">
+        <v>3.15</v>
+      </c>
+      <c r="Y11">
+        <v>11.5</v>
+      </c>
+      <c r="Z11">
+        <v>2.12</v>
+      </c>
+      <c r="AA11">
+        <v>16</v>
+      </c>
+      <c r="AB11">
+        <v>1.01</v>
+      </c>
+      <c r="AC11">
+        <v>1000</v>
+      </c>
+      <c r="AD11">
+        <v>3.35</v>
+      </c>
+      <c r="AE11">
+        <v>14.5</v>
+      </c>
+      <c r="AF11">
+        <v>3.25</v>
+      </c>
+      <c r="AG11">
+        <v>12.5</v>
+      </c>
+      <c r="AH11">
+        <v>2.14</v>
+      </c>
+      <c r="AI11">
+        <v>18</v>
+      </c>
+      <c r="AJ11">
+        <v>1.01</v>
+      </c>
+      <c r="AK11">
+        <v>1000</v>
+      </c>
+      <c r="AL11">
+        <v>1.01</v>
+      </c>
+      <c r="AM11">
+        <v>1000</v>
+      </c>
+      <c r="AN11">
+        <v>1.01</v>
+      </c>
+      <c r="AO11">
+        <v>30</v>
+      </c>
+      <c r="AP11">
+        <v>1.01</v>
+      </c>
+      <c r="AQ11">
+        <v>1000</v>
+      </c>
+      <c r="AR11">
+        <v>1.01</v>
+      </c>
+      <c r="AS11">
+        <v>1000</v>
+      </c>
+      <c r="AT11">
+        <v>1.01</v>
+      </c>
+      <c r="AU11">
+        <v>1000</v>
+      </c>
+      <c r="AV11">
+        <v>1.01</v>
+      </c>
+      <c r="AW11">
+        <v>1000</v>
+      </c>
+      <c r="AX11">
+        <v>1.01</v>
+      </c>
+      <c r="AY11">
+        <v>1000</v>
+      </c>
+      <c r="AZ11">
+        <v>1.07</v>
+      </c>
+      <c r="BA11">
+        <v>1000</v>
+      </c>
+      <c r="BB11">
         <v>1.48</v>
       </c>
-      <c r="O11">
-        <v>1.99</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
       <c r="BC11">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF11" t="s">
         <v>174</v>
@@ -3408,16 +3585,16 @@
         <v>58805</v>
       </c>
       <c r="BJ11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BK11" t="s">
-        <v>249</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
+        <v>250</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>288</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3437,160 +3614,160 @@
         <v>137</v>
       </c>
       <c r="F12">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>2.74</v>
+      </c>
+      <c r="I12">
+        <v>2.94</v>
+      </c>
+      <c r="J12">
         <v>3.55</v>
       </c>
-      <c r="H12">
-        <v>2.48</v>
-      </c>
-      <c r="I12">
-        <v>3.75</v>
-      </c>
-      <c r="J12">
-        <v>3.2</v>
-      </c>
       <c r="K12">
-        <v>5.7</v>
+        <v>3.95</v>
       </c>
       <c r="L12">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="M12">
-        <v>2.7</v>
+        <v>2.24</v>
       </c>
       <c r="N12">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="O12">
-        <v>2.7</v>
+        <v>2.06</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BB12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC12">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BD12">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BE12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF12" t="s">
         <v>175</v>
@@ -3605,16 +3782,16 @@
         <v>58805</v>
       </c>
       <c r="BJ12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BK12" t="s">
-        <v>250</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12">
-        <v>0</v>
+        <v>251</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>289</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -3634,160 +3811,160 @@
         <v>138</v>
       </c>
       <c r="F13">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="G13">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="H13">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J13">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K13">
-        <v>9.4</v>
+        <v>4.8</v>
       </c>
       <c r="L13">
         <v>2.2</v>
       </c>
       <c r="M13">
-        <v>3.6</v>
+        <v>2.62</v>
       </c>
       <c r="N13">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="O13">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX13">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ13">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BB13">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BD13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BE13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF13" t="s">
         <v>176</v>
@@ -3802,16 +3979,16 @@
         <v>58805</v>
       </c>
       <c r="BJ13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BK13" t="s">
-        <v>251</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
+        <v>252</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>290</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -3831,160 +4008,160 @@
         <v>139</v>
       </c>
       <c r="F14">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="G14">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="H14">
+        <v>3.8</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>3.55</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>2.12</v>
+      </c>
+      <c r="M14">
+        <v>2.86</v>
+      </c>
+      <c r="N14">
+        <v>1.54</v>
+      </c>
+      <c r="O14">
+        <v>1.88</v>
+      </c>
+      <c r="P14">
+        <v>1.12</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+      <c r="R14">
+        <v>1.12</v>
+      </c>
+      <c r="S14">
+        <v>2.9</v>
+      </c>
+      <c r="T14">
+        <v>3.55</v>
+      </c>
+      <c r="U14">
+        <v>25</v>
+      </c>
+      <c r="V14">
+        <v>3.55</v>
+      </c>
+      <c r="W14">
+        <v>23</v>
+      </c>
+      <c r="X14">
         <v>3.75</v>
       </c>
-      <c r="I14">
-        <v>5.9</v>
-      </c>
-      <c r="J14">
-        <v>3.6</v>
-      </c>
-      <c r="K14">
-        <v>5.6</v>
-      </c>
-      <c r="L14">
-        <v>1.2</v>
-      </c>
-      <c r="M14">
-        <v>990</v>
-      </c>
-      <c r="N14">
-        <v>1.03</v>
-      </c>
-      <c r="O14">
-        <v>6.4</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
       <c r="Y14">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ14">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BB14">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BC14">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BD14">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="BE14">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF14" t="s">
         <v>177</v>
@@ -3999,16 +4176,16 @@
         <v>58805</v>
       </c>
       <c r="BJ14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BK14" t="s">
-        <v>252</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>0</v>
+        <v>253</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>291</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4028,160 +4205,160 @@
         <v>140</v>
       </c>
       <c r="F15">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="G15">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="H15">
         <v>3.1</v>
       </c>
       <c r="I15">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="J15">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K15">
-        <v>8.4</v>
+        <v>5.9</v>
       </c>
       <c r="L15">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
       <c r="M15">
-        <v>3.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N15">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="O15">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BC15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD15">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="BE15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF15" t="s">
         <v>178</v>
@@ -4196,16 +4373,16 @@
         <v>58805</v>
       </c>
       <c r="BJ15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="BK15" t="s">
-        <v>253</v>
-      </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BM15">
-        <v>0</v>
+        <v>254</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>292</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4225,160 +4402,160 @@
         <v>141</v>
       </c>
       <c r="F16">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="G16">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="H16">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="I16">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="J16">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="K16">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="L16">
-        <v>1.74</v>
+        <v>2.04</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>2.14</v>
       </c>
       <c r="N16">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="O16">
+        <v>1.95</v>
+      </c>
+      <c r="P16">
+        <v>1.12</v>
+      </c>
+      <c r="Q16">
+        <v>2.16</v>
+      </c>
+      <c r="R16">
+        <v>1.12</v>
+      </c>
+      <c r="S16">
+        <v>2.48</v>
+      </c>
+      <c r="T16">
+        <v>2.16</v>
+      </c>
+      <c r="U16">
+        <v>980</v>
+      </c>
+      <c r="V16">
+        <v>2.18</v>
+      </c>
+      <c r="W16">
+        <v>980</v>
+      </c>
+      <c r="X16">
+        <v>2.32</v>
+      </c>
+      <c r="Y16">
+        <v>40</v>
+      </c>
+      <c r="Z16">
+        <v>2.42</v>
+      </c>
+      <c r="AA16">
+        <v>1000</v>
+      </c>
+      <c r="AB16">
+        <v>2.46</v>
+      </c>
+      <c r="AC16">
+        <v>980</v>
+      </c>
+      <c r="AD16">
+        <v>2.46</v>
+      </c>
+      <c r="AE16">
+        <v>980</v>
+      </c>
+      <c r="AF16">
+        <v>2.22</v>
+      </c>
+      <c r="AG16">
+        <v>980</v>
+      </c>
+      <c r="AH16">
+        <v>2.38</v>
+      </c>
+      <c r="AI16">
+        <v>1000</v>
+      </c>
+      <c r="AJ16">
+        <v>2.1</v>
+      </c>
+      <c r="AK16">
+        <v>14</v>
+      </c>
+      <c r="AL16">
+        <v>2.06</v>
+      </c>
+      <c r="AM16">
+        <v>980</v>
+      </c>
+      <c r="AN16">
+        <v>2.98</v>
+      </c>
+      <c r="AO16">
+        <v>980</v>
+      </c>
+      <c r="AP16">
+        <v>2.4</v>
+      </c>
+      <c r="AQ16">
+        <v>1000</v>
+      </c>
+      <c r="AR16">
+        <v>2.26</v>
+      </c>
+      <c r="AS16">
+        <v>26</v>
+      </c>
+      <c r="AT16">
+        <v>2.24</v>
+      </c>
+      <c r="AU16">
+        <v>25</v>
+      </c>
+      <c r="AV16">
         <v>2.34</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
       <c r="AW16">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AX16">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AY16">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ16">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="BB16">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BC16">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD16">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="BE16">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF16" t="s">
         <v>179</v>
@@ -4393,16 +4570,16 @@
         <v>58805</v>
       </c>
       <c r="BJ16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BK16" t="s">
-        <v>254</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BM16">
-        <v>0</v>
+        <v>255</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>293</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4422,160 +4599,160 @@
         <v>142</v>
       </c>
       <c r="F17">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="G17">
-        <v>2.86</v>
+        <v>2.42</v>
       </c>
       <c r="H17">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="I17">
+        <v>3.35</v>
+      </c>
+      <c r="J17">
+        <v>3.45</v>
+      </c>
+      <c r="K17">
+        <v>3.75</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>2.42</v>
+      </c>
+      <c r="N17">
+        <v>1.71</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>1.71</v>
+      </c>
+      <c r="Q17">
+        <v>1.99</v>
+      </c>
+      <c r="R17">
+        <v>2.22</v>
+      </c>
+      <c r="S17">
+        <v>2.7</v>
+      </c>
+      <c r="T17">
+        <v>11</v>
+      </c>
+      <c r="U17">
+        <v>18</v>
+      </c>
+      <c r="V17">
+        <v>11</v>
+      </c>
+      <c r="W17">
+        <v>17</v>
+      </c>
+      <c r="X17">
+        <v>3.95</v>
+      </c>
+      <c r="Y17">
+        <v>27</v>
+      </c>
+      <c r="Z17">
+        <v>4.3</v>
+      </c>
+      <c r="AA17">
+        <v>65</v>
+      </c>
+      <c r="AB17">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC17">
+        <v>14</v>
+      </c>
+      <c r="AD17">
+        <v>6.6</v>
+      </c>
+      <c r="AE17">
+        <v>980</v>
+      </c>
+      <c r="AF17">
+        <v>11.5</v>
+      </c>
+      <c r="AG17">
+        <v>17</v>
+      </c>
+      <c r="AH17">
+        <v>4.2</v>
+      </c>
+      <c r="AI17">
+        <v>42</v>
+      </c>
+      <c r="AJ17">
+        <v>12.5</v>
+      </c>
+      <c r="AK17">
+        <v>20</v>
+      </c>
+      <c r="AL17">
+        <v>9.6</v>
+      </c>
+      <c r="AM17">
+        <v>14.5</v>
+      </c>
+      <c r="AN17">
+        <v>14.5</v>
+      </c>
+      <c r="AO17">
+        <v>21</v>
+      </c>
+      <c r="AP17">
+        <v>4.3</v>
+      </c>
+      <c r="AQ17">
+        <v>55</v>
+      </c>
+      <c r="AR17">
+        <v>4.2</v>
+      </c>
+      <c r="AS17">
+        <v>42</v>
+      </c>
+      <c r="AT17">
+        <v>4</v>
+      </c>
+      <c r="AU17">
+        <v>32</v>
+      </c>
+      <c r="AV17">
+        <v>4.2</v>
+      </c>
+      <c r="AW17">
+        <v>46</v>
+      </c>
+      <c r="AX17">
+        <v>4.4</v>
+      </c>
+      <c r="AY17">
+        <v>110</v>
+      </c>
+      <c r="AZ17">
         <v>3.85</v>
       </c>
-      <c r="J17">
-        <v>3.3</v>
-      </c>
-      <c r="K17">
-        <v>6</v>
-      </c>
-      <c r="L17">
-        <v>1.2</v>
-      </c>
-      <c r="M17">
-        <v>2.38</v>
-      </c>
-      <c r="N17">
-        <v>1.72</v>
-      </c>
-      <c r="O17">
-        <v>6.4</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
       <c r="BA17">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BB17">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BC17">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BD17">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BE17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF17" t="s">
         <v>180</v>
@@ -4590,16 +4767,16 @@
         <v>58805</v>
       </c>
       <c r="BJ17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BK17" t="s">
-        <v>255</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BM17">
-        <v>0</v>
+        <v>256</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>294</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -4619,160 +4796,160 @@
         <v>143</v>
       </c>
       <c r="F18">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G18">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H18">
-        <v>2.26</v>
+        <v>1.95</v>
       </c>
       <c r="I18">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="J18">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K18">
-        <v>6.6</v>
+        <v>330</v>
       </c>
       <c r="L18">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="M18">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N18">
+        <v>1.43</v>
+      </c>
+      <c r="O18">
+        <v>2.2</v>
+      </c>
+      <c r="P18">
+        <v>1.12</v>
+      </c>
+      <c r="Q18">
+        <v>20</v>
+      </c>
+      <c r="R18">
+        <v>1.12</v>
+      </c>
+      <c r="S18">
+        <v>20</v>
+      </c>
+      <c r="T18">
         <v>1.45</v>
       </c>
-      <c r="O18">
-        <v>2.1</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
       <c r="U18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB18">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BE18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF18" t="s">
         <v>181</v>
@@ -4787,16 +4964,16 @@
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BK18" t="s">
-        <v>256</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BM18">
-        <v>0</v>
+        <v>257</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>295</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -4816,160 +4993,160 @@
         <v>144</v>
       </c>
       <c r="F19">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="G19">
         <v>1.39</v>
       </c>
       <c r="H19">
-        <v>5.6</v>
+        <v>8.4</v>
       </c>
       <c r="I19">
-        <v>38</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J19">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="K19">
-        <v>990</v>
+        <v>6.6</v>
       </c>
       <c r="L19">
-        <v>2.2</v>
+        <v>2.78</v>
       </c>
       <c r="M19">
-        <v>4.4</v>
+        <v>8.4</v>
       </c>
       <c r="N19">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="O19">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AY19">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AZ19">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="BC19">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="BD19">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="BE19">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF19" t="s">
         <v>182</v>
@@ -4984,16 +5161,16 @@
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BK19" t="s">
-        <v>257</v>
-      </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BM19">
-        <v>0</v>
+        <v>258</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>296</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5013,7 +5190,7 @@
         <v>145</v>
       </c>
       <c r="F20">
-        <v>2.14</v>
+        <v>2.94</v>
       </c>
       <c r="G20">
         <v>900</v>
@@ -5022,16 +5199,16 @@
         <v>1.03</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="J20">
-        <v>2.14</v>
+        <v>2.98</v>
       </c>
       <c r="K20">
         <v>900</v>
       </c>
       <c r="L20">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="M20">
         <v>110</v>
@@ -5040,133 +5217,133 @@
         <v>1.03</v>
       </c>
       <c r="O20">
-        <v>110</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX20">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AY20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD20">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="BE20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF20" t="s">
         <v>183</v>
@@ -5181,16 +5358,16 @@
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BK20" t="s">
-        <v>258</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BM20">
-        <v>0</v>
+        <v>259</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>297</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5210,160 +5387,160 @@
         <v>146</v>
       </c>
       <c r="F21">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G21">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="H21">
-        <v>6.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I21">
-        <v>740</v>
+        <v>12.5</v>
       </c>
       <c r="J21">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="K21">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M21">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="N21">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AU21">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AV21">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AW21">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AX21">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AY21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ21">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="BB21">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="BC21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD21">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="BE21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF21" t="s">
         <v>184</v>
@@ -5378,16 +5555,16 @@
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BK21" t="s">
-        <v>259</v>
-      </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BM21">
-        <v>0</v>
+        <v>260</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>298</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5407,160 +5584,160 @@
         <v>147</v>
       </c>
       <c r="F22">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="G22">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="H22">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="I22">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="J22">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K22">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L22">
-        <v>1.56</v>
+        <v>1.96</v>
       </c>
       <c r="M22">
-        <v>2.92</v>
+        <v>2.3</v>
       </c>
       <c r="N22">
-        <v>1.52</v>
+        <v>1.76</v>
       </c>
       <c r="O22">
-        <v>2.76</v>
+        <v>2.04</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BC22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD22">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BE22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF22" t="s">
         <v>185</v>
@@ -5575,16 +5752,16 @@
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BK22" t="s">
-        <v>260</v>
-      </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BM22">
-        <v>0</v>
+        <v>261</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>299</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5604,160 +5781,160 @@
         <v>148</v>
       </c>
       <c r="F23">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="G23">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="H23">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="I23">
-        <v>48</v>
+        <v>9.4</v>
       </c>
       <c r="J23">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="K23">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L23">
+        <v>2.28</v>
+      </c>
+      <c r="M23">
+        <v>3.25</v>
+      </c>
+      <c r="N23">
+        <v>1.45</v>
+      </c>
+      <c r="O23">
+        <v>1.77</v>
+      </c>
+      <c r="P23">
+        <v>1.12</v>
+      </c>
+      <c r="Q23">
+        <v>2.06</v>
+      </c>
+      <c r="R23">
+        <v>1.12</v>
+      </c>
+      <c r="S23">
+        <v>20</v>
+      </c>
+      <c r="T23">
+        <v>2.02</v>
+      </c>
+      <c r="U23">
+        <v>32</v>
+      </c>
+      <c r="V23">
+        <v>2.04</v>
+      </c>
+      <c r="W23">
+        <v>38</v>
+      </c>
+      <c r="X23">
+        <v>2.1</v>
+      </c>
+      <c r="Y23">
+        <v>1000</v>
+      </c>
+      <c r="Z23">
+        <v>2.14</v>
+      </c>
+      <c r="AA23">
+        <v>1000</v>
+      </c>
+      <c r="AB23">
+        <v>1.87</v>
+      </c>
+      <c r="AC23">
+        <v>14</v>
+      </c>
+      <c r="AD23">
+        <v>1.89</v>
+      </c>
+      <c r="AE23">
+        <v>15</v>
+      </c>
+      <c r="AF23">
+        <v>2.02</v>
+      </c>
+      <c r="AG23">
+        <v>34</v>
+      </c>
+      <c r="AH23">
+        <v>2.12</v>
+      </c>
+      <c r="AI23">
+        <v>1000</v>
+      </c>
+      <c r="AJ23">
+        <v>1.85</v>
+      </c>
+      <c r="AK23">
+        <v>13</v>
+      </c>
+      <c r="AL23">
+        <v>2.16</v>
+      </c>
+      <c r="AM23">
+        <v>10.5</v>
+      </c>
+      <c r="AN23">
         <v>2</v>
       </c>
-      <c r="M23">
-        <v>3.35</v>
-      </c>
-      <c r="N23">
-        <v>1.42</v>
-      </c>
-      <c r="O23">
-        <v>1.99</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
       <c r="AO23">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AW23">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AX23">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AY23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ23">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="BB23">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="BC23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="BE23">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF23" t="s">
         <v>186</v>
@@ -5772,16 +5949,16 @@
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BK23" t="s">
-        <v>261</v>
-      </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BM23">
-        <v>0</v>
+        <v>262</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>300</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -5801,160 +5978,160 @@
         <v>149</v>
       </c>
       <c r="F24">
+        <v>2.6</v>
+      </c>
+      <c r="G24">
+        <v>2.66</v>
+      </c>
+      <c r="H24">
+        <v>3.05</v>
+      </c>
+      <c r="I24">
+        <v>3.15</v>
+      </c>
+      <c r="J24">
+        <v>3.35</v>
+      </c>
+      <c r="K24">
+        <v>3.45</v>
+      </c>
+      <c r="L24">
+        <v>1.7</v>
+      </c>
+      <c r="M24">
+        <v>1.87</v>
+      </c>
+      <c r="N24">
+        <v>2.14</v>
+      </c>
+      <c r="O24">
+        <v>2.44</v>
+      </c>
+      <c r="P24">
+        <v>1.74</v>
+      </c>
+      <c r="Q24">
+        <v>2.6</v>
+      </c>
+      <c r="R24">
+        <v>1.63</v>
+      </c>
+      <c r="S24">
         <v>2.34</v>
       </c>
-      <c r="G24">
-        <v>3.1</v>
-      </c>
-      <c r="H24">
-        <v>2.8</v>
-      </c>
-      <c r="I24">
-        <v>3.95</v>
-      </c>
-      <c r="J24">
-        <v>3.15</v>
-      </c>
-      <c r="K24">
-        <v>4.5</v>
-      </c>
-      <c r="L24">
-        <v>1.2</v>
-      </c>
-      <c r="M24">
-        <v>2.26</v>
-      </c>
-      <c r="N24">
-        <v>1.79</v>
-      </c>
-      <c r="O24">
-        <v>6.4</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
       <c r="T24">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AS24">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AW24">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX24">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AY24">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AZ24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB24">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BC24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="BE24">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF24" t="s">
         <v>187</v>
@@ -5969,16 +6146,16 @@
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BK24" t="s">
-        <v>262</v>
-      </c>
-      <c r="BL24">
-        <v>0</v>
-      </c>
-      <c r="BM24">
-        <v>0</v>
+        <v>263</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>301</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -5998,160 +6175,160 @@
         <v>150</v>
       </c>
       <c r="F25">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="G25">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H25">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="I25">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="J25">
+        <v>3.4</v>
+      </c>
+      <c r="K25">
+        <v>3.65</v>
+      </c>
+      <c r="L25">
+        <v>1.71</v>
+      </c>
+      <c r="M25">
+        <v>2.04</v>
+      </c>
+      <c r="N25">
+        <v>1.97</v>
+      </c>
+      <c r="O25">
+        <v>2.4</v>
+      </c>
+      <c r="P25">
+        <v>1.12</v>
+      </c>
+      <c r="Q25">
+        <v>2.14</v>
+      </c>
+      <c r="R25">
+        <v>1.12</v>
+      </c>
+      <c r="S25">
+        <v>2.5</v>
+      </c>
+      <c r="T25">
+        <v>3.35</v>
+      </c>
+      <c r="U25">
+        <v>16</v>
+      </c>
+      <c r="V25">
+        <v>3.35</v>
+      </c>
+      <c r="W25">
+        <v>16</v>
+      </c>
+      <c r="X25">
+        <v>3.7</v>
+      </c>
+      <c r="Y25">
+        <v>29</v>
+      </c>
+      <c r="Z25">
+        <v>1.36</v>
+      </c>
+      <c r="AA25">
+        <v>1000</v>
+      </c>
+      <c r="AB25">
+        <v>3.15</v>
+      </c>
+      <c r="AC25">
+        <v>12.5</v>
+      </c>
+      <c r="AD25">
+        <v>2.96</v>
+      </c>
+      <c r="AE25">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AF25">
+        <v>3.4</v>
+      </c>
+      <c r="AG25">
+        <v>18</v>
+      </c>
+      <c r="AH25">
+        <v>3.9</v>
+      </c>
+      <c r="AI25">
+        <v>1000</v>
+      </c>
+      <c r="AJ25">
+        <v>3.4</v>
+      </c>
+      <c r="AK25">
+        <v>17.5</v>
+      </c>
+      <c r="AL25">
+        <v>3.25</v>
+      </c>
+      <c r="AM25">
+        <v>14</v>
+      </c>
+      <c r="AN25">
+        <v>3.55</v>
+      </c>
+      <c r="AO25">
+        <v>23</v>
+      </c>
+      <c r="AP25">
+        <v>1.36</v>
+      </c>
+      <c r="AQ25">
+        <v>1000</v>
+      </c>
+      <c r="AR25">
+        <v>3.8</v>
+      </c>
+      <c r="AS25">
+        <v>38</v>
+      </c>
+      <c r="AT25">
+        <v>3.05</v>
+      </c>
+      <c r="AU25">
+        <v>32</v>
+      </c>
+      <c r="AV25">
+        <v>2.18</v>
+      </c>
+      <c r="AW25">
+        <v>1000</v>
+      </c>
+      <c r="AX25">
         <v>3.3</v>
       </c>
-      <c r="K25">
-        <v>5.7</v>
-      </c>
-      <c r="L25">
-        <v>1.52</v>
-      </c>
-      <c r="M25">
-        <v>2.86</v>
-      </c>
-      <c r="N25">
-        <v>1.53</v>
-      </c>
-      <c r="O25">
-        <v>2.94</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
-        <v>0</v>
-      </c>
-      <c r="AT25">
-        <v>0</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
-        <v>0</v>
-      </c>
-      <c r="AW25">
-        <v>0</v>
-      </c>
-      <c r="AX25">
-        <v>0</v>
-      </c>
       <c r="AY25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ25">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BC25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BE25">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF25" t="s">
         <v>188</v>
@@ -6166,16 +6343,16 @@
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BK25" t="s">
-        <v>263</v>
-      </c>
-      <c r="BL25">
-        <v>0</v>
-      </c>
-      <c r="BM25">
-        <v>0</v>
+        <v>264</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>302</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6195,160 +6372,160 @@
         <v>151</v>
       </c>
       <c r="F26">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="G26">
         <v>2.28</v>
       </c>
       <c r="H26">
-        <v>2.92</v>
+        <v>3.6</v>
       </c>
       <c r="I26">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="J26">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K26">
-        <v>5.7</v>
+        <v>3.65</v>
       </c>
       <c r="L26">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="M26">
-        <v>2.56</v>
+        <v>1.97</v>
       </c>
       <c r="N26">
-        <v>1.64</v>
+        <v>2.04</v>
       </c>
       <c r="O26">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AU26">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AV26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW26">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX26">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AY26">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AZ26">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BB26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC26">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BD26">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BE26">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF26" t="s">
         <v>189</v>
@@ -6363,16 +6540,16 @@
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BK26" t="s">
-        <v>264</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BM26">
-        <v>0</v>
+        <v>265</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>303</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6392,160 +6569,160 @@
         <v>152</v>
       </c>
       <c r="F27">
-        <v>2.2</v>
+        <v>2.64</v>
       </c>
       <c r="G27">
-        <v>4.6</v>
+        <v>2.86</v>
       </c>
       <c r="H27">
-        <v>1.83</v>
+        <v>2.82</v>
       </c>
       <c r="I27">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="J27">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K27">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="L27">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="M27">
-        <v>2.38</v>
+        <v>1.99</v>
       </c>
       <c r="N27">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>2.34</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU27">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AV27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AX27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC27">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BD27">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="BE27">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF27" t="s">
         <v>190</v>
@@ -6560,16 +6737,16 @@
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BK27" t="s">
-        <v>265</v>
-      </c>
-      <c r="BL27">
-        <v>0</v>
-      </c>
-      <c r="BM27">
-        <v>0</v>
+        <v>266</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>304</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -6589,160 +6766,160 @@
         <v>153</v>
       </c>
       <c r="F28">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G28">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H28">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="I28">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="J28">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K28">
         <v>5.5</v>
       </c>
       <c r="L28">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="M28">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="N28">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="O28">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AS28">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU28">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AY28">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AZ28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="BB28">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BC28">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="BD28">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="BE28">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF28" t="s">
         <v>191</v>
@@ -6757,16 +6934,16 @@
         <v>58805</v>
       </c>
       <c r="BJ28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BK28" t="s">
-        <v>266</v>
-      </c>
-      <c r="BL28">
-        <v>0</v>
-      </c>
-      <c r="BM28">
-        <v>0</v>
+        <v>267</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>305</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -6786,10 +6963,10 @@
         <v>154</v>
       </c>
       <c r="F29">
+        <v>2.28</v>
+      </c>
+      <c r="G29">
         <v>2.3</v>
-      </c>
-      <c r="G29">
-        <v>2.32</v>
       </c>
       <c r="H29">
         <v>3.05</v>
@@ -6798,19 +6975,19 @@
         <v>3.15</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K29">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L29">
         <v>2.78</v>
       </c>
       <c r="M29">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="N29">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="O29">
         <v>1.56</v>
@@ -6822,7 +6999,7 @@
         <v>1.54</v>
       </c>
       <c r="R29">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="S29">
         <v>3</v>
@@ -6831,25 +7008,25 @@
         <v>23</v>
       </c>
       <c r="U29">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="V29">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="W29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y29">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Z29">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AA29">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB29">
         <v>15.5</v>
@@ -6858,88 +7035,88 @@
         <v>17</v>
       </c>
       <c r="AD29">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE29">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AF29">
         <v>12.5</v>
       </c>
       <c r="AG29">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH29">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AI29">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AJ29">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK29">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL29">
         <v>10.5</v>
       </c>
       <c r="AM29">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AN29">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP29">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AQ29">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AR29">
+        <v>29</v>
+      </c>
+      <c r="AS29">
+        <v>32</v>
+      </c>
+      <c r="AT29">
+        <v>18.5</v>
+      </c>
+      <c r="AU29">
+        <v>20</v>
+      </c>
+      <c r="AV29">
+        <v>23</v>
+      </c>
+      <c r="AW29">
         <v>26</v>
       </c>
-      <c r="AS29">
-        <v>38</v>
-      </c>
-      <c r="AT29">
-        <v>17.5</v>
-      </c>
-      <c r="AU29">
-        <v>21</v>
-      </c>
-      <c r="AV29">
-        <v>22</v>
-      </c>
-      <c r="AW29">
-        <v>29</v>
-      </c>
       <c r="AX29">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AY29">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AZ29">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BA29">
         <v>10.5</v>
       </c>
       <c r="BB29">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC29">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BD29">
         <v>70</v>
       </c>
       <c r="BE29">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BF29" t="s">
         <v>192</v>
@@ -6954,16 +7131,16 @@
         <v>58805</v>
       </c>
       <c r="BJ29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BK29" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BL29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="BM29" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -6983,22 +7160,22 @@
         <v>155</v>
       </c>
       <c r="F30">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G30">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H30">
         <v>3.2</v>
       </c>
       <c r="I30">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J30">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K30">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L30">
         <v>2.32</v>
@@ -7007,7 +7184,7 @@
         <v>2.36</v>
       </c>
       <c r="N30">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="O30">
         <v>1.76</v>
@@ -7016,121 +7193,121 @@
         <v>1.62</v>
       </c>
       <c r="Q30">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R30">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="S30">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T30">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="U30">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W30">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="X30">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y30">
+        <v>24</v>
+      </c>
+      <c r="Z30">
+        <v>48</v>
+      </c>
+      <c r="AA30">
+        <v>55</v>
+      </c>
+      <c r="AB30">
+        <v>12</v>
+      </c>
+      <c r="AC30">
+        <v>13</v>
+      </c>
+      <c r="AD30">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE30">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF30">
+        <v>12.5</v>
+      </c>
+      <c r="AG30">
+        <v>13.5</v>
+      </c>
+      <c r="AH30">
         <v>29</v>
       </c>
-      <c r="Z30">
-        <v>40</v>
-      </c>
-      <c r="AA30">
-        <v>65</v>
-      </c>
-      <c r="AB30">
-        <v>11.5</v>
-      </c>
-      <c r="AC30">
-        <v>13.5</v>
-      </c>
-      <c r="AD30">
-        <v>8</v>
-      </c>
-      <c r="AE30">
-        <v>9</v>
-      </c>
-      <c r="AF30">
-        <v>12</v>
-      </c>
-      <c r="AG30">
-        <v>15</v>
-      </c>
-      <c r="AH30">
-        <v>25</v>
-      </c>
       <c r="AI30">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AJ30">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL30">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AM30">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AN30">
         <v>14.5</v>
       </c>
       <c r="AO30">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AP30">
+        <v>34</v>
+      </c>
+      <c r="AQ30">
+        <v>38</v>
+      </c>
+      <c r="AR30">
+        <v>29</v>
+      </c>
+      <c r="AS30">
+        <v>32</v>
+      </c>
+      <c r="AT30">
+        <v>20</v>
+      </c>
+      <c r="AU30">
+        <v>22</v>
+      </c>
+      <c r="AV30">
+        <v>28</v>
+      </c>
+      <c r="AW30">
         <v>30</v>
       </c>
-      <c r="AQ30">
-        <v>46</v>
-      </c>
-      <c r="AR30">
-        <v>19.5</v>
-      </c>
-      <c r="AS30">
-        <v>38</v>
-      </c>
-      <c r="AT30">
-        <v>18</v>
-      </c>
-      <c r="AU30">
-        <v>27</v>
-      </c>
-      <c r="AV30">
-        <v>25</v>
-      </c>
-      <c r="AW30">
-        <v>38</v>
-      </c>
       <c r="AX30">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AY30">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AZ30">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="BA30">
         <v>14</v>
       </c>
       <c r="BB30">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="BC30">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD30">
         <v>55</v>
@@ -7151,16 +7328,16 @@
         <v>58805</v>
       </c>
       <c r="BJ30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BK30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BL30" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="BM30" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7180,160 +7357,160 @@
         <v>156</v>
       </c>
       <c r="F31">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G31">
+        <v>13.5</v>
+      </c>
+      <c r="H31">
+        <v>1.34</v>
+      </c>
+      <c r="I31">
+        <v>1.39</v>
+      </c>
+      <c r="J31">
+        <v>5.3</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>2.06</v>
+      </c>
+      <c r="M31">
+        <v>2.38</v>
+      </c>
+      <c r="N31">
+        <v>1.72</v>
+      </c>
+      <c r="O31">
+        <v>1.95</v>
+      </c>
+      <c r="P31">
+        <v>2.06</v>
+      </c>
+      <c r="Q31">
+        <v>2.46</v>
+      </c>
+      <c r="R31">
+        <v>1.68</v>
+      </c>
+      <c r="S31">
+        <v>1.93</v>
+      </c>
+      <c r="T31">
+        <v>5.1</v>
+      </c>
+      <c r="U31">
+        <v>21</v>
+      </c>
+      <c r="V31">
+        <v>6.8</v>
+      </c>
+      <c r="W31">
+        <v>9</v>
+      </c>
+      <c r="X31">
+        <v>6.4</v>
+      </c>
+      <c r="Y31">
+        <v>8.4</v>
+      </c>
+      <c r="Z31">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA31">
+        <v>12</v>
+      </c>
+      <c r="AB31">
+        <v>5.7</v>
+      </c>
+      <c r="AC31">
+        <v>36</v>
+      </c>
+      <c r="AD31">
+        <v>10</v>
+      </c>
+      <c r="AE31">
+        <v>14</v>
+      </c>
+      <c r="AF31">
+        <v>8.6</v>
+      </c>
+      <c r="AG31">
+        <v>12</v>
+      </c>
+      <c r="AH31">
+        <v>11.5</v>
+      </c>
+      <c r="AI31">
+        <v>17</v>
+      </c>
+      <c r="AJ31">
+        <v>6.4</v>
+      </c>
+      <c r="AK31">
+        <v>110</v>
+      </c>
+      <c r="AL31">
+        <v>5.9</v>
+      </c>
+      <c r="AM31">
         <v>46</v>
       </c>
-      <c r="H31">
-        <v>1.32</v>
-      </c>
-      <c r="I31">
-        <v>1.45</v>
-      </c>
-      <c r="J31">
-        <v>5.1</v>
-      </c>
-      <c r="K31">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="L31">
-        <v>1.68</v>
-      </c>
-      <c r="M31">
-        <v>2.46</v>
-      </c>
-      <c r="N31">
-        <v>1.69</v>
-      </c>
-      <c r="O31">
-        <v>2.46</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
       <c r="AN31">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AS31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT31">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AU31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV31">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AW31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX31">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AY31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ31">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BA31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB31">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="BC31">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BD31">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BE31">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF31" t="s">
         <v>194</v>
@@ -7348,16 +7525,16 @@
         <v>58805</v>
       </c>
       <c r="BJ31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BK31" t="s">
-        <v>269</v>
-      </c>
-      <c r="BL31">
-        <v>0</v>
-      </c>
-      <c r="BM31">
-        <v>0</v>
+        <v>270</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>308</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7377,160 +7554,160 @@
         <v>157</v>
       </c>
       <c r="F32">
-        <v>1.32</v>
+        <v>3.5</v>
       </c>
       <c r="G32">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H32">
-        <v>1.35</v>
+        <v>1.89</v>
       </c>
       <c r="I32">
+        <v>2.44</v>
+      </c>
+      <c r="J32">
+        <v>2.84</v>
+      </c>
+      <c r="K32">
+        <v>4.2</v>
+      </c>
+      <c r="L32">
+        <v>1.58</v>
+      </c>
+      <c r="M32">
+        <v>1.89</v>
+      </c>
+      <c r="N32">
+        <v>2.12</v>
+      </c>
+      <c r="O32">
+        <v>2.7</v>
+      </c>
+      <c r="P32">
+        <v>1.79</v>
+      </c>
+      <c r="Q32">
+        <v>2.34</v>
+      </c>
+      <c r="R32">
+        <v>1.74</v>
+      </c>
+      <c r="S32">
+        <v>2.28</v>
+      </c>
+      <c r="T32">
+        <v>8</v>
+      </c>
+      <c r="U32">
         <v>13</v>
       </c>
-      <c r="J32">
-        <v>2.94</v>
-      </c>
-      <c r="K32">
-        <v>1000</v>
-      </c>
-      <c r="L32">
-        <v>1.52</v>
-      </c>
-      <c r="M32">
-        <v>2.38</v>
-      </c>
-      <c r="N32">
-        <v>1.72</v>
-      </c>
-      <c r="O32">
-        <v>2.94</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
       <c r="V32">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT32">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AU32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AW32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BD32">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE32">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF32" t="s">
         <v>195</v>
@@ -7545,16 +7722,16 @@
         <v>58805</v>
       </c>
       <c r="BJ32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BK32" t="s">
-        <v>270</v>
-      </c>
-      <c r="BL32">
-        <v>0</v>
-      </c>
-      <c r="BM32">
-        <v>0</v>
+        <v>271</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>309</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -7577,7 +7754,7 @@
         <v>2.42</v>
       </c>
       <c r="G33">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="H33">
         <v>2.98</v>
@@ -7586,7 +7763,7 @@
         <v>3.65</v>
       </c>
       <c r="J33">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="K33">
         <v>3.5</v>
@@ -7616,115 +7793,115 @@
         <v>2</v>
       </c>
       <c r="T33">
-        <v>1.21</v>
+        <v>1.82</v>
       </c>
       <c r="U33">
         <v>980</v>
       </c>
       <c r="V33">
-        <v>1.09</v>
+        <v>1.73</v>
       </c>
       <c r="W33">
         <v>980</v>
       </c>
       <c r="X33">
-        <v>1.18</v>
+        <v>1.99</v>
       </c>
       <c r="Y33">
         <v>980</v>
       </c>
       <c r="Z33">
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="AA33">
         <v>1000</v>
       </c>
       <c r="AB33">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="AC33">
         <v>980</v>
       </c>
       <c r="AD33">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="AE33">
         <v>980</v>
       </c>
       <c r="AF33">
-        <v>1.21</v>
+        <v>1.77</v>
       </c>
       <c r="AG33">
         <v>980</v>
       </c>
       <c r="AH33">
-        <v>1.03</v>
+        <v>6.2</v>
       </c>
       <c r="AI33">
         <v>1000</v>
       </c>
       <c r="AJ33">
-        <v>1.27</v>
+        <v>2.24</v>
       </c>
       <c r="AK33">
         <v>980</v>
       </c>
       <c r="AL33">
-        <v>1.31</v>
+        <v>1.79</v>
       </c>
       <c r="AM33">
         <v>980</v>
       </c>
       <c r="AN33">
-        <v>1.07</v>
+        <v>5.7</v>
       </c>
       <c r="AO33">
         <v>980</v>
       </c>
       <c r="AP33">
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="AQ33">
         <v>1000</v>
       </c>
       <c r="AR33">
-        <v>1.05</v>
+        <v>1.51</v>
       </c>
       <c r="AS33">
         <v>1000</v>
       </c>
       <c r="AT33">
-        <v>1.05</v>
+        <v>5.8</v>
       </c>
       <c r="AU33">
         <v>1000</v>
       </c>
       <c r="AV33">
-        <v>1.03</v>
+        <v>6.4</v>
       </c>
       <c r="AW33">
         <v>1000</v>
       </c>
       <c r="AX33">
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="AY33">
         <v>1000</v>
       </c>
       <c r="AZ33">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="BA33">
         <v>1000</v>
       </c>
       <c r="BB33">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="BC33">
         <v>1000</v>
       </c>
       <c r="BD33">
-        <v>1.03</v>
+        <v>6.8</v>
       </c>
       <c r="BE33">
         <v>1000</v>
@@ -7742,16 +7919,16 @@
         <v>58805</v>
       </c>
       <c r="BJ33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BK33" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BL33" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="BM33" t="s">
-        <v>287</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -7771,22 +7948,22 @@
         <v>159</v>
       </c>
       <c r="F34">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="G34">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H34">
         <v>3.4</v>
       </c>
       <c r="I34">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K34">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L34">
         <v>1.53</v>
@@ -7819,109 +7996,109 @@
         <v>980</v>
       </c>
       <c r="V34">
-        <v>1.13</v>
+        <v>1.83</v>
       </c>
       <c r="W34">
         <v>980</v>
       </c>
       <c r="X34">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="Y34">
         <v>980</v>
       </c>
       <c r="Z34">
-        <v>1.04</v>
+        <v>1.26</v>
       </c>
       <c r="AA34">
         <v>1000</v>
       </c>
       <c r="AB34">
-        <v>1.31</v>
+        <v>2.08</v>
       </c>
       <c r="AC34">
         <v>980</v>
       </c>
       <c r="AD34">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AE34">
         <v>980</v>
       </c>
       <c r="AF34">
-        <v>1.13</v>
+        <v>1.95</v>
       </c>
       <c r="AG34">
         <v>980</v>
       </c>
       <c r="AH34">
-        <v>1.04</v>
+        <v>1.26</v>
       </c>
       <c r="AI34">
         <v>1000</v>
       </c>
       <c r="AJ34">
-        <v>2.88</v>
+        <v>1.88</v>
       </c>
       <c r="AK34">
         <v>980</v>
       </c>
       <c r="AL34">
-        <v>4.6</v>
+        <v>2.08</v>
       </c>
       <c r="AM34">
         <v>980</v>
       </c>
       <c r="AN34">
-        <v>1.13</v>
+        <v>5.5</v>
       </c>
       <c r="AO34">
         <v>980</v>
       </c>
       <c r="AP34">
-        <v>1.04</v>
+        <v>1.26</v>
       </c>
       <c r="AQ34">
         <v>1000</v>
       </c>
       <c r="AR34">
-        <v>1.03</v>
+        <v>1.69</v>
       </c>
       <c r="AS34">
         <v>1000</v>
       </c>
       <c r="AT34">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="AU34">
         <v>1000</v>
       </c>
       <c r="AV34">
-        <v>1.04</v>
+        <v>1.26</v>
       </c>
       <c r="AW34">
         <v>1000</v>
       </c>
       <c r="AX34">
-        <v>1.03</v>
+        <v>1.26</v>
       </c>
       <c r="AY34">
         <v>1000</v>
       </c>
       <c r="AZ34">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="BA34">
         <v>1000</v>
       </c>
       <c r="BB34">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="BC34">
         <v>1000</v>
       </c>
       <c r="BD34">
-        <v>1.03</v>
+        <v>6.8</v>
       </c>
       <c r="BE34">
         <v>1000</v>
@@ -7939,16 +8116,16 @@
         <v>58805</v>
       </c>
       <c r="BJ34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BK34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BL34" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="BM34" t="s">
-        <v>288</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -7968,22 +8145,22 @@
         <v>160</v>
       </c>
       <c r="F35">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="G35">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H35">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="I35">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="J35">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="K35">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L35">
         <v>1.64</v>
@@ -8001,16 +8178,16 @@
         <v>1.94</v>
       </c>
       <c r="Q35">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S35">
         <v>2.08</v>
       </c>
       <c r="T35">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U35">
         <v>980</v>
@@ -8022,7 +8199,7 @@
         <v>980</v>
       </c>
       <c r="X35">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Y35">
         <v>980</v>
@@ -8034,19 +8211,19 @@
         <v>980</v>
       </c>
       <c r="AB35">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AC35">
         <v>980</v>
       </c>
       <c r="AD35">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="AE35">
         <v>980</v>
       </c>
       <c r="AF35">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AG35">
         <v>980</v>
@@ -8064,25 +8241,25 @@
         <v>980</v>
       </c>
       <c r="AL35">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AM35">
         <v>980</v>
       </c>
       <c r="AN35">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AO35">
         <v>980</v>
       </c>
       <c r="AP35">
-        <v>2.82</v>
+        <v>3.5</v>
       </c>
       <c r="AQ35">
         <v>1000</v>
       </c>
       <c r="AR35">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="AS35">
         <v>1000</v>
@@ -8100,25 +8277,25 @@
         <v>1000</v>
       </c>
       <c r="AX35">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="AY35">
         <v>1000</v>
       </c>
       <c r="AZ35">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="BA35">
         <v>1000</v>
       </c>
       <c r="BB35">
-        <v>2.64</v>
+        <v>3.65</v>
       </c>
       <c r="BC35">
         <v>980</v>
       </c>
       <c r="BD35">
-        <v>1.82</v>
+        <v>2.98</v>
       </c>
       <c r="BE35">
         <v>1000</v>
@@ -8136,16 +8313,16 @@
         <v>58805</v>
       </c>
       <c r="BJ35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BK35" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BL35" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="BM35" t="s">
-        <v>289</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:65">
@@ -8165,13 +8342,13 @@
         <v>161</v>
       </c>
       <c r="F36">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="G36">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H36">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I36">
         <v>7.4</v>
@@ -8201,10 +8378,10 @@
         <v>2.64</v>
       </c>
       <c r="R36">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S36">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T36">
         <v>7.6</v>
@@ -8213,37 +8390,37 @@
         <v>11.5</v>
       </c>
       <c r="V36">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="W36">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="X36">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y36">
         <v>980</v>
       </c>
       <c r="Z36">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AA36">
         <v>1000</v>
       </c>
       <c r="AB36">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AC36">
         <v>7.6</v>
       </c>
       <c r="AD36">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AE36">
         <v>10.5</v>
       </c>
       <c r="AF36">
-        <v>3.9</v>
+        <v>20</v>
       </c>
       <c r="AG36">
         <v>980</v>
@@ -8267,7 +8444,7 @@
         <v>13.5</v>
       </c>
       <c r="AN36">
-        <v>3.95</v>
+        <v>21</v>
       </c>
       <c r="AO36">
         <v>980</v>
@@ -8291,13 +8468,13 @@
         <v>980</v>
       </c>
       <c r="AV36">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AW36">
         <v>980</v>
       </c>
       <c r="AX36">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AY36">
         <v>1000</v>
@@ -8333,16 +8510,16 @@
         <v>58805</v>
       </c>
       <c r="BJ36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BK36" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BL36" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="BM36" t="s">
-        <v>290</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:65">
@@ -8362,34 +8539,34 @@
         <v>162</v>
       </c>
       <c r="F37">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="G37">
-        <v>3.25</v>
+        <v>480</v>
       </c>
       <c r="H37">
+        <v>1.4</v>
+      </c>
+      <c r="I37">
+        <v>870</v>
+      </c>
+      <c r="J37">
         <v>3</v>
       </c>
-      <c r="I37">
-        <v>4.6</v>
-      </c>
-      <c r="J37">
-        <v>2.82</v>
-      </c>
       <c r="K37">
-        <v>4.2</v>
+        <v>330</v>
       </c>
       <c r="L37">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="M37">
-        <v>2.12</v>
+        <v>1.74</v>
       </c>
       <c r="N37">
-        <v>1.89</v>
+        <v>2.34</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -8530,10 +8707,10 @@
         <v>58805</v>
       </c>
       <c r="BJ37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BK37" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BL37">
         <v>0</v>
@@ -8559,157 +8736,157 @@
         <v>163</v>
       </c>
       <c r="F38">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G38">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H38">
         <v>3.45</v>
       </c>
       <c r="I38">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="J38">
         <v>3.4</v>
       </c>
       <c r="K38">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="L38">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="M38">
-        <v>2.58</v>
+        <v>1.93</v>
       </c>
       <c r="N38">
-        <v>1.63</v>
+        <v>2.08</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>2.26</v>
       </c>
       <c r="P38">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="Q38">
-        <v>1000</v>
+        <v>1.97</v>
       </c>
       <c r="R38">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="S38">
-        <v>1000</v>
+        <v>2.18</v>
       </c>
       <c r="T38">
         <v>10.5</v>
       </c>
       <c r="U38">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="V38">
         <v>11</v>
       </c>
       <c r="W38">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="X38">
         <v>20</v>
       </c>
       <c r="Y38">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z38">
         <v>50</v>
       </c>
       <c r="AA38">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB38">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC38">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD38">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE38">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AF38">
         <v>12</v>
       </c>
       <c r="AG38">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH38">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI38">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ38">
         <v>11.5</v>
       </c>
       <c r="AK38">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL38">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AM38">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AN38">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO38">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AP38">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AQ38">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AR38">
         <v>27</v>
       </c>
       <c r="AS38">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AT38">
         <v>20</v>
       </c>
       <c r="AU38">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AV38">
         <v>32</v>
       </c>
       <c r="AW38">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX38">
-        <v>80</v>
+        <v>4.3</v>
       </c>
       <c r="AY38">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AZ38">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="BA38">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="BB38">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BC38">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="BD38">
-        <v>12.5</v>
+        <v>4.3</v>
       </c>
       <c r="BE38">
         <v>1000</v>
@@ -8727,16 +8904,16 @@
         <v>58805</v>
       </c>
       <c r="BJ38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BK38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BL38" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="BM38" t="s">
-        <v>291</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -8756,34 +8933,34 @@
         <v>164</v>
       </c>
       <c r="F39">
-        <v>1.41</v>
+        <v>2.66</v>
       </c>
       <c r="G39">
-        <v>17.5</v>
+        <v>3.6</v>
       </c>
       <c r="H39">
-        <v>1.39</v>
+        <v>2.5</v>
       </c>
       <c r="I39">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J39">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K39">
-        <v>18</v>
+        <v>3.8</v>
       </c>
       <c r="L39">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="M39">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="N39">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="O39">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -8924,10 +9101,10 @@
         <v>58805</v>
       </c>
       <c r="BJ39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BK39" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BL39">
         <v>0</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-16.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="188">
   <si>
     <t>League</t>
   </si>
@@ -550,628 +550,28 @@
     <t>Santa Fe</t>
   </si>
   <si>
-    <t>33189104</t>
-  </si>
-  <si>
-    <t>33195153</t>
-  </si>
-  <si>
-    <t>33181040</t>
-  </si>
-  <si>
-    <t>33181621</t>
-  </si>
-  <si>
-    <t>33195165</t>
-  </si>
-  <si>
-    <t>33195163</t>
-  </si>
-  <si>
-    <t>33192005</t>
-  </si>
-  <si>
-    <t>33190676</t>
-  </si>
-  <si>
-    <t>33190886</t>
-  </si>
-  <si>
-    <t>33191347</t>
-  </si>
-  <si>
-    <t>33190445</t>
-  </si>
-  <si>
-    <t>33190682</t>
-  </si>
-  <si>
-    <t>33190717</t>
-  </si>
-  <si>
-    <t>33190416</t>
-  </si>
-  <si>
-    <t>33190629</t>
-  </si>
-  <si>
-    <t>33186667</t>
-  </si>
-  <si>
-    <t>33190452</t>
-  </si>
-  <si>
-    <t>33186675</t>
-  </si>
-  <si>
-    <t>33183511</t>
-  </si>
-  <si>
-    <t>33190390</t>
-  </si>
-  <si>
-    <t>33186709</t>
-  </si>
-  <si>
-    <t>33186541</t>
-  </si>
-  <si>
-    <t>33186586</t>
-  </si>
-  <si>
-    <t>33186547</t>
-  </si>
-  <si>
-    <t>33190492</t>
-  </si>
-  <si>
-    <t>33186571</t>
-  </si>
-  <si>
-    <t>33186594</t>
-  </si>
-  <si>
-    <t>33186647</t>
-  </si>
-  <si>
-    <t>33186566</t>
-  </si>
-  <si>
-    <t>33186628</t>
-  </si>
-  <si>
-    <t>33179707</t>
-  </si>
-  <si>
-    <t>33182525</t>
-  </si>
-  <si>
-    <t>33182528</t>
-  </si>
-  <si>
-    <t>33186506</t>
-  </si>
-  <si>
-    <t>33191253</t>
-  </si>
-  <si>
-    <t>33177374</t>
-  </si>
-  <si>
-    <t>33177372</t>
-  </si>
-  <si>
-    <t>33177358</t>
-  </si>
-  <si>
-    <t>33177356</t>
-  </si>
-  <si>
-    <t>33191638</t>
-  </si>
-  <si>
     <t>33191364</t>
   </si>
   <si>
     <t>33190985</t>
   </si>
   <si>
-    <t>1.227633117</t>
-  </si>
-  <si>
-    <t>1.227651761</t>
-  </si>
-  <si>
-    <t>1.227410772</t>
-  </si>
-  <si>
-    <t>1.227422436</t>
-  </si>
-  <si>
-    <t>1.227663134</t>
-  </si>
-  <si>
-    <t>1.227663224</t>
-  </si>
-  <si>
-    <t>1.227591911</t>
-  </si>
-  <si>
-    <t>1.227573304</t>
-  </si>
-  <si>
-    <t>1.227573124</t>
-  </si>
-  <si>
-    <t>1.227587232</t>
-  </si>
-  <si>
-    <t>1.227573394</t>
-  </si>
-  <si>
-    <t>1.227573214</t>
-  </si>
-  <si>
-    <t>1.227572206</t>
-  </si>
-  <si>
-    <t>1.227563758</t>
-  </si>
-  <si>
-    <t>1.227562605</t>
-  </si>
-  <si>
-    <t>1.227498222</t>
-  </si>
-  <si>
-    <t>1.227563668</t>
-  </si>
-  <si>
-    <t>1.227497883</t>
-  </si>
-  <si>
-    <t>1.227445520</t>
-  </si>
-  <si>
-    <t>1.227563850</t>
-  </si>
-  <si>
-    <t>1.227497718</t>
-  </si>
-  <si>
-    <t>1.227496767</t>
-  </si>
-  <si>
-    <t>1.227495478</t>
-  </si>
-  <si>
-    <t>1.227495804</t>
-  </si>
-  <si>
-    <t>1.227563578</t>
-  </si>
-  <si>
-    <t>1.227495586</t>
-  </si>
-  <si>
-    <t>1.227495368</t>
-  </si>
-  <si>
-    <t>1.227496564</t>
-  </si>
-  <si>
-    <t>1.227495695</t>
-  </si>
-  <si>
-    <t>1.227496672</t>
-  </si>
-  <si>
-    <t>1.227393337</t>
-  </si>
-  <si>
-    <t>1.227432093</t>
-  </si>
-  <si>
-    <t>1.227431952</t>
-  </si>
-  <si>
-    <t>1.227495912</t>
-  </si>
-  <si>
-    <t>1.227576957</t>
-  </si>
-  <si>
-    <t>1.227353284</t>
-  </si>
-  <si>
-    <t>1.227353374</t>
-  </si>
-  <si>
-    <t>1.227352578</t>
-  </si>
-  <si>
-    <t>1.227352668</t>
-  </si>
-  <si>
-    <t>1.227584714</t>
-  </si>
-  <si>
     <t>1.227583199</t>
   </si>
   <si>
     <t>1.227573784</t>
   </si>
   <si>
-    <t>1.227633121</t>
-  </si>
-  <si>
-    <t>1.227651807</t>
-  </si>
-  <si>
-    <t>1.227410817</t>
-  </si>
-  <si>
-    <t>1.227422481</t>
-  </si>
-  <si>
-    <t>1.227663179</t>
-  </si>
-  <si>
-    <t>1.227663269</t>
-  </si>
-  <si>
-    <t>1.227591956</t>
-  </si>
-  <si>
-    <t>1.227573349</t>
-  </si>
-  <si>
-    <t>1.227573169</t>
-  </si>
-  <si>
-    <t>1.227587277</t>
-  </si>
-  <si>
-    <t>1.227573439</t>
-  </si>
-  <si>
-    <t>1.227573259</t>
-  </si>
-  <si>
-    <t>1.227572251</t>
-  </si>
-  <si>
-    <t>1.227563803</t>
-  </si>
-  <si>
-    <t>1.227562615</t>
-  </si>
-  <si>
-    <t>1.227498267</t>
-  </si>
-  <si>
-    <t>1.227563713</t>
-  </si>
-  <si>
-    <t>1.227497961</t>
-  </si>
-  <si>
-    <t>1.227445530</t>
-  </si>
-  <si>
-    <t>1.227563895</t>
-  </si>
-  <si>
-    <t>1.227497763</t>
-  </si>
-  <si>
-    <t>1.227496812</t>
-  </si>
-  <si>
-    <t>1.227495488</t>
-  </si>
-  <si>
-    <t>1.227495814</t>
-  </si>
-  <si>
-    <t>1.227563623</t>
-  </si>
-  <si>
-    <t>1.227495596</t>
-  </si>
-  <si>
-    <t>1.227495378</t>
-  </si>
-  <si>
-    <t>1.227496574</t>
-  </si>
-  <si>
-    <t>1.227495705</t>
-  </si>
-  <si>
-    <t>1.227496682</t>
-  </si>
-  <si>
-    <t>1.227393382</t>
-  </si>
-  <si>
-    <t>1.227432032</t>
-  </si>
-  <si>
-    <t>1.227431891</t>
-  </si>
-  <si>
-    <t>1.227495922</t>
-  </si>
-  <si>
-    <t>1.227577002</t>
-  </si>
-  <si>
-    <t>1.227353329</t>
-  </si>
-  <si>
-    <t>1.227353419</t>
-  </si>
-  <si>
-    <t>1.227352623</t>
-  </si>
-  <si>
-    <t>1.227352713</t>
-  </si>
-  <si>
-    <t>1.227584759</t>
-  </si>
-  <si>
     <t>1.227583183</t>
   </si>
   <si>
     <t>1.227573829</t>
   </si>
   <si>
-    <t>1.227633196</t>
-  </si>
-  <si>
-    <t>1.227651851</t>
-  </si>
-  <si>
-    <t>1.227410856</t>
-  </si>
-  <si>
-    <t>1.227422520</t>
-  </si>
-  <si>
-    <t>1.227663218</t>
-  </si>
-  <si>
-    <t>1.227663308</t>
-  </si>
-  <si>
-    <t>1.227591995</t>
-  </si>
-  <si>
-    <t>1.227573388</t>
-  </si>
-  <si>
-    <t>1.227573208</t>
-  </si>
-  <si>
-    <t>1.227587316</t>
-  </si>
-  <si>
-    <t>1.227573478</t>
-  </si>
-  <si>
-    <t>1.227573298</t>
-  </si>
-  <si>
-    <t>1.227572290</t>
-  </si>
-  <si>
-    <t>1.227563842</t>
-  </si>
-  <si>
-    <t>1.227562604</t>
-  </si>
-  <si>
-    <t>1.227498306</t>
-  </si>
-  <si>
-    <t>1.227563752</t>
-  </si>
-  <si>
-    <t>1.227498000</t>
-  </si>
-  <si>
-    <t>1.227445519</t>
-  </si>
-  <si>
-    <t>1.227563934</t>
-  </si>
-  <si>
-    <t>1.227497802</t>
-  </si>
-  <si>
-    <t>1.227496851</t>
-  </si>
-  <si>
-    <t>1.227495477</t>
-  </si>
-  <si>
-    <t>1.227495803</t>
-  </si>
-  <si>
-    <t>1.227563662</t>
-  </si>
-  <si>
-    <t>1.227495585</t>
-  </si>
-  <si>
-    <t>1.227495367</t>
-  </si>
-  <si>
-    <t>1.227496563</t>
-  </si>
-  <si>
-    <t>1.227495694</t>
-  </si>
-  <si>
-    <t>1.227496671</t>
-  </si>
-  <si>
-    <t>1.227393421</t>
-  </si>
-  <si>
-    <t>1.227432092</t>
-  </si>
-  <si>
-    <t>1.227431951</t>
-  </si>
-  <si>
-    <t>1.227495911</t>
-  </si>
-  <si>
-    <t>1.227577041</t>
-  </si>
-  <si>
-    <t>1.227353368</t>
-  </si>
-  <si>
-    <t>1.227353458</t>
-  </si>
-  <si>
-    <t>1.227352662</t>
-  </si>
-  <si>
-    <t>1.227352752</t>
-  </si>
-  <si>
-    <t>1.227584798</t>
-  </si>
-  <si>
     <t>1.227583198</t>
   </si>
   <si>
     <t>1.227573868</t>
-  </si>
-  <si>
-    <t>1.227633118</t>
-  </si>
-  <si>
-    <t>1.227651771</t>
-  </si>
-  <si>
-    <t>1.227410781</t>
-  </si>
-  <si>
-    <t>1.227422445</t>
-  </si>
-  <si>
-    <t>1.227663143</t>
-  </si>
-  <si>
-    <t>1.227663233</t>
-  </si>
-  <si>
-    <t>1.227591920</t>
-  </si>
-  <si>
-    <t>1.227573313</t>
-  </si>
-  <si>
-    <t>1.227573133</t>
-  </si>
-  <si>
-    <t>1.227587241</t>
-  </si>
-  <si>
-    <t>1.227573403</t>
-  </si>
-  <si>
-    <t>1.227573223</t>
-  </si>
-  <si>
-    <t>1.227572215</t>
-  </si>
-  <si>
-    <t>1.227563767</t>
-  </si>
-  <si>
-    <t>1.227562614</t>
-  </si>
-  <si>
-    <t>1.227498396</t>
-  </si>
-  <si>
-    <t>1.227563677</t>
-  </si>
-  <si>
-    <t>1.227497925</t>
-  </si>
-  <si>
-    <t>1.227445529</t>
-  </si>
-  <si>
-    <t>1.227563859</t>
-  </si>
-  <si>
-    <t>1.227497727</t>
-  </si>
-  <si>
-    <t>1.227496776</t>
-  </si>
-  <si>
-    <t>1.227495487</t>
-  </si>
-  <si>
-    <t>1.227495813</t>
-  </si>
-  <si>
-    <t>1.227563587</t>
-  </si>
-  <si>
-    <t>1.227495595</t>
-  </si>
-  <si>
-    <t>1.227495377</t>
-  </si>
-  <si>
-    <t>1.227496573</t>
-  </si>
-  <si>
-    <t>1.227495704</t>
-  </si>
-  <si>
-    <t>1.227496681</t>
-  </si>
-  <si>
-    <t>1.227393346</t>
-  </si>
-  <si>
-    <t>1.227432103</t>
-  </si>
-  <si>
-    <t>1.227431962</t>
-  </si>
-  <si>
-    <t>1.227495921</t>
-  </si>
-  <si>
-    <t>1.227576966</t>
-  </si>
-  <si>
-    <t>1.227353293</t>
-  </si>
-  <si>
-    <t>1.227353383</t>
-  </si>
-  <si>
-    <t>1.227352587</t>
-  </si>
-  <si>
-    <t>1.227352677</t>
-  </si>
-  <si>
-    <t>1.227584723</t>
   </si>
   <si>
     <t>1.227583208</t>
@@ -1910,8 +1310,8 @@
       <c r="BE2">
         <v>180</v>
       </c>
-      <c r="BF2" t="s">
-        <v>178</v>
+      <c r="BF2">
+        <v>33189104</v>
       </c>
       <c r="BG2">
         <v>24301731</v>
@@ -1922,17 +1322,17 @@
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>262</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>346</v>
+      <c r="BJ2">
+        <v>1.227633117</v>
+      </c>
+      <c r="BK2">
+        <v>1.227633121</v>
+      </c>
+      <c r="BL2">
+        <v>1.227633196</v>
+      </c>
+      <c r="BM2">
+        <v>1.227633118</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -2107,8 +1507,8 @@
       <c r="BE3">
         <v>1000</v>
       </c>
-      <c r="BF3" t="s">
-        <v>179</v>
+      <c r="BF3">
+        <v>33195153</v>
       </c>
       <c r="BG3">
         <v>5924203</v>
@@ -2119,17 +1519,17 @@
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>221</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>263</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>305</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>347</v>
+      <c r="BJ3">
+        <v>1.227651761</v>
+      </c>
+      <c r="BK3">
+        <v>1.227651807</v>
+      </c>
+      <c r="BL3">
+        <v>1.227651851</v>
+      </c>
+      <c r="BM3">
+        <v>1.227651771</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2304,8 +1704,8 @@
       <c r="BE4">
         <v>940</v>
       </c>
-      <c r="BF4" t="s">
-        <v>180</v>
+      <c r="BF4">
+        <v>33181040</v>
       </c>
       <c r="BG4">
         <v>14136987</v>
@@ -2316,17 +1716,17 @@
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>222</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>264</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>306</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>348</v>
+      <c r="BJ4">
+        <v>1.227410772</v>
+      </c>
+      <c r="BK4">
+        <v>1.227410817</v>
+      </c>
+      <c r="BL4">
+        <v>1.227410856</v>
+      </c>
+      <c r="BM4">
+        <v>1.227410781</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2501,8 +1901,8 @@
       <c r="BE5">
         <v>1000</v>
       </c>
-      <c r="BF5" t="s">
-        <v>181</v>
+      <c r="BF5">
+        <v>33181621</v>
       </c>
       <c r="BG5">
         <v>780885</v>
@@ -2513,17 +1913,17 @@
       <c r="BI5">
         <v>58805</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>265</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>307</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>349</v>
+      <c r="BJ5">
+        <v>1.227422436</v>
+      </c>
+      <c r="BK5">
+        <v>1.227422481</v>
+      </c>
+      <c r="BL5">
+        <v>1.22742252</v>
+      </c>
+      <c r="BM5">
+        <v>1.227422445</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2698,8 +2098,8 @@
       <c r="BE6">
         <v>1000</v>
       </c>
-      <c r="BF6" t="s">
-        <v>182</v>
+      <c r="BF6">
+        <v>33195165</v>
       </c>
       <c r="BG6">
         <v>3611094</v>
@@ -2710,17 +2110,17 @@
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>224</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>266</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>308</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>350</v>
+      <c r="BJ6">
+        <v>1.227663134</v>
+      </c>
+      <c r="BK6">
+        <v>1.227663179</v>
+      </c>
+      <c r="BL6">
+        <v>1.227663218</v>
+      </c>
+      <c r="BM6">
+        <v>1.227663143</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -2895,8 +2295,8 @@
       <c r="BE7">
         <v>1000</v>
       </c>
-      <c r="BF7" t="s">
-        <v>183</v>
+      <c r="BF7">
+        <v>33195163</v>
       </c>
       <c r="BG7">
         <v>7387939</v>
@@ -2907,17 +2307,17 @@
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>225</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>267</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>309</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>351</v>
+      <c r="BJ7">
+        <v>1.227663224</v>
+      </c>
+      <c r="BK7">
+        <v>1.227663269</v>
+      </c>
+      <c r="BL7">
+        <v>1.227663308</v>
+      </c>
+      <c r="BM7">
+        <v>1.227663233</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -3092,8 +2492,8 @@
       <c r="BE8">
         <v>1000</v>
       </c>
-      <c r="BF8" t="s">
-        <v>184</v>
+      <c r="BF8">
+        <v>33192005</v>
       </c>
       <c r="BG8">
         <v>539982</v>
@@ -3104,17 +2504,17 @@
       <c r="BI8">
         <v>58805</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>226</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>268</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>310</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>352</v>
+      <c r="BJ8">
+        <v>1.227591911</v>
+      </c>
+      <c r="BK8">
+        <v>1.227591956</v>
+      </c>
+      <c r="BL8">
+        <v>1.227591995</v>
+      </c>
+      <c r="BM8">
+        <v>1.22759192</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -3289,8 +2689,8 @@
       <c r="BE9">
         <v>1000</v>
       </c>
-      <c r="BF9" t="s">
-        <v>185</v>
+      <c r="BF9">
+        <v>33190676</v>
       </c>
       <c r="BG9">
         <v>539981</v>
@@ -3301,17 +2701,17 @@
       <c r="BI9">
         <v>58805</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>227</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>269</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>311</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>353</v>
+      <c r="BJ9">
+        <v>1.227573304</v>
+      </c>
+      <c r="BK9">
+        <v>1.227573349</v>
+      </c>
+      <c r="BL9">
+        <v>1.227573388</v>
+      </c>
+      <c r="BM9">
+        <v>1.227573313</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3486,8 +2886,8 @@
       <c r="BE10">
         <v>1000</v>
       </c>
-      <c r="BF10" t="s">
-        <v>186</v>
+      <c r="BF10">
+        <v>33190886</v>
       </c>
       <c r="BG10">
         <v>44330</v>
@@ -3498,17 +2898,17 @@
       <c r="BI10">
         <v>58805</v>
       </c>
-      <c r="BJ10" t="s">
-        <v>228</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>270</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>312</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>354</v>
+      <c r="BJ10">
+        <v>1.227573124</v>
+      </c>
+      <c r="BK10">
+        <v>1.227573169</v>
+      </c>
+      <c r="BL10">
+        <v>1.227573208</v>
+      </c>
+      <c r="BM10">
+        <v>1.227573133</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3683,8 +3083,8 @@
       <c r="BE11">
         <v>1000</v>
       </c>
-      <c r="BF11" t="s">
-        <v>187</v>
+      <c r="BF11">
+        <v>33191347</v>
       </c>
       <c r="BG11">
         <v>46944</v>
@@ -3695,17 +3095,17 @@
       <c r="BI11">
         <v>58805</v>
       </c>
-      <c r="BJ11" t="s">
-        <v>229</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>313</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>355</v>
+      <c r="BJ11">
+        <v>1.227587232</v>
+      </c>
+      <c r="BK11">
+        <v>1.227587277</v>
+      </c>
+      <c r="BL11">
+        <v>1.227587316</v>
+      </c>
+      <c r="BM11">
+        <v>1.227587241</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3880,8 +3280,8 @@
       <c r="BE12">
         <v>1000</v>
       </c>
-      <c r="BF12" t="s">
-        <v>188</v>
+      <c r="BF12">
+        <v>33190445</v>
       </c>
       <c r="BG12">
         <v>539985</v>
@@ -3892,17 +3292,17 @@
       <c r="BI12">
         <v>58805</v>
       </c>
-      <c r="BJ12" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>272</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>314</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>356</v>
+      <c r="BJ12">
+        <v>1.227573394</v>
+      </c>
+      <c r="BK12">
+        <v>1.227573439</v>
+      </c>
+      <c r="BL12">
+        <v>1.227573478</v>
+      </c>
+      <c r="BM12">
+        <v>1.227573403</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -4077,8 +3477,8 @@
       <c r="BE13">
         <v>1000</v>
       </c>
-      <c r="BF13" t="s">
-        <v>189</v>
+      <c r="BF13">
+        <v>33190682</v>
       </c>
       <c r="BG13">
         <v>539986</v>
@@ -4089,17 +3489,17 @@
       <c r="BI13">
         <v>58805</v>
       </c>
-      <c r="BJ13" t="s">
-        <v>231</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>273</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>315</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>357</v>
+      <c r="BJ13">
+        <v>1.227573214</v>
+      </c>
+      <c r="BK13">
+        <v>1.227573259</v>
+      </c>
+      <c r="BL13">
+        <v>1.227573298</v>
+      </c>
+      <c r="BM13">
+        <v>1.227573223</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -4274,8 +3674,8 @@
       <c r="BE14">
         <v>1000</v>
       </c>
-      <c r="BF14" t="s">
-        <v>190</v>
+      <c r="BF14">
+        <v>33190717</v>
       </c>
       <c r="BG14">
         <v>22975264</v>
@@ -4286,17 +3686,17 @@
       <c r="BI14">
         <v>58805</v>
       </c>
-      <c r="BJ14" t="s">
-        <v>232</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>274</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>316</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>358</v>
+      <c r="BJ14">
+        <v>1.227572206</v>
+      </c>
+      <c r="BK14">
+        <v>1.227572251</v>
+      </c>
+      <c r="BL14">
+        <v>1.22757229</v>
+      </c>
+      <c r="BM14">
+        <v>1.227572215</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4471,8 +3871,8 @@
       <c r="BE15">
         <v>1000</v>
       </c>
-      <c r="BF15" t="s">
-        <v>191</v>
+      <c r="BF15">
+        <v>33190416</v>
       </c>
       <c r="BG15">
         <v>3396707</v>
@@ -4483,17 +3883,17 @@
       <c r="BI15">
         <v>58805</v>
       </c>
-      <c r="BJ15" t="s">
-        <v>233</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>275</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>317</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>359</v>
+      <c r="BJ15">
+        <v>1.227563758</v>
+      </c>
+      <c r="BK15">
+        <v>1.227563803</v>
+      </c>
+      <c r="BL15">
+        <v>1.227563842</v>
+      </c>
+      <c r="BM15">
+        <v>1.227563767</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4668,8 +4068,8 @@
       <c r="BE16">
         <v>1000</v>
       </c>
-      <c r="BF16" t="s">
-        <v>192</v>
+      <c r="BF16">
+        <v>33190629</v>
       </c>
       <c r="BG16">
         <v>266068</v>
@@ -4680,17 +4080,17 @@
       <c r="BI16">
         <v>58805</v>
       </c>
-      <c r="BJ16" t="s">
-        <v>234</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>276</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>318</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>360</v>
+      <c r="BJ16">
+        <v>1.227562605</v>
+      </c>
+      <c r="BK16">
+        <v>1.227562615</v>
+      </c>
+      <c r="BL16">
+        <v>1.227562604</v>
+      </c>
+      <c r="BM16">
+        <v>1.227562614</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4865,8 +4265,8 @@
       <c r="BE17">
         <v>1000</v>
       </c>
-      <c r="BF17" t="s">
-        <v>193</v>
+      <c r="BF17">
+        <v>33186667</v>
       </c>
       <c r="BG17">
         <v>486328</v>
@@ -4877,17 +4277,17 @@
       <c r="BI17">
         <v>58805</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>235</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>277</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>319</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>361</v>
+      <c r="BJ17">
+        <v>1.227498222</v>
+      </c>
+      <c r="BK17">
+        <v>1.227498267</v>
+      </c>
+      <c r="BL17">
+        <v>1.227498306</v>
+      </c>
+      <c r="BM17">
+        <v>1.227498396</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -5062,8 +4462,8 @@
       <c r="BE18">
         <v>1000</v>
       </c>
-      <c r="BF18" t="s">
-        <v>194</v>
+      <c r="BF18">
+        <v>33190452</v>
       </c>
       <c r="BG18">
         <v>2608900</v>
@@ -5074,17 +4474,17 @@
       <c r="BI18">
         <v>58805</v>
       </c>
-      <c r="BJ18" t="s">
-        <v>236</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>278</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>320</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>362</v>
+      <c r="BJ18">
+        <v>1.227563668</v>
+      </c>
+      <c r="BK18">
+        <v>1.227563713</v>
+      </c>
+      <c r="BL18">
+        <v>1.227563752</v>
+      </c>
+      <c r="BM18">
+        <v>1.227563677</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -5259,8 +4659,8 @@
       <c r="BE19">
         <v>1000</v>
       </c>
-      <c r="BF19" t="s">
-        <v>195</v>
+      <c r="BF19">
+        <v>33186675</v>
       </c>
       <c r="BG19">
         <v>148734</v>
@@ -5271,17 +4671,17 @@
       <c r="BI19">
         <v>58805</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>237</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>279</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>321</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>363</v>
+      <c r="BJ19">
+        <v>1.227497883</v>
+      </c>
+      <c r="BK19">
+        <v>1.227497961</v>
+      </c>
+      <c r="BL19">
+        <v>1.227498</v>
+      </c>
+      <c r="BM19">
+        <v>1.227497925</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5456,8 +4856,8 @@
       <c r="BE20">
         <v>1000</v>
       </c>
-      <c r="BF20" t="s">
-        <v>196</v>
+      <c r="BF20">
+        <v>33183511</v>
       </c>
       <c r="BG20">
         <v>55213</v>
@@ -5468,17 +4868,17 @@
       <c r="BI20">
         <v>58805</v>
       </c>
-      <c r="BJ20" t="s">
-        <v>238</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>280</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>322</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>364</v>
+      <c r="BJ20">
+        <v>1.22744552</v>
+      </c>
+      <c r="BK20">
+        <v>1.22744553</v>
+      </c>
+      <c r="BL20">
+        <v>1.227445519</v>
+      </c>
+      <c r="BM20">
+        <v>1.227445529</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5653,8 +5053,8 @@
       <c r="BE21">
         <v>1000</v>
       </c>
-      <c r="BF21" t="s">
-        <v>197</v>
+      <c r="BF21">
+        <v>33190390</v>
       </c>
       <c r="BG21">
         <v>256383</v>
@@ -5665,17 +5065,17 @@
       <c r="BI21">
         <v>58805</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>239</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>281</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>323</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>365</v>
+      <c r="BJ21">
+        <v>1.22756385</v>
+      </c>
+      <c r="BK21">
+        <v>1.227563895</v>
+      </c>
+      <c r="BL21">
+        <v>1.227563934</v>
+      </c>
+      <c r="BM21">
+        <v>1.227563859</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5850,8 +5250,8 @@
       <c r="BE22">
         <v>1000</v>
       </c>
-      <c r="BF22" t="s">
-        <v>198</v>
+      <c r="BF22">
+        <v>33186709</v>
       </c>
       <c r="BG22">
         <v>69716</v>
@@ -5862,17 +5262,17 @@
       <c r="BI22">
         <v>58805</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>240</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>282</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>324</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>366</v>
+      <c r="BJ22">
+        <v>1.227497718</v>
+      </c>
+      <c r="BK22">
+        <v>1.227497763</v>
+      </c>
+      <c r="BL22">
+        <v>1.227497802</v>
+      </c>
+      <c r="BM22">
+        <v>1.227497727</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -6047,8 +5447,8 @@
       <c r="BE23">
         <v>1000</v>
       </c>
-      <c r="BF23" t="s">
-        <v>199</v>
+      <c r="BF23">
+        <v>33186541</v>
       </c>
       <c r="BG23">
         <v>615040</v>
@@ -6059,17 +5459,17 @@
       <c r="BI23">
         <v>58805</v>
       </c>
-      <c r="BJ23" t="s">
-        <v>241</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>283</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>325</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>367</v>
+      <c r="BJ23">
+        <v>1.227496767</v>
+      </c>
+      <c r="BK23">
+        <v>1.227496812</v>
+      </c>
+      <c r="BL23">
+        <v>1.227496851</v>
+      </c>
+      <c r="BM23">
+        <v>1.227496776</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -6244,8 +5644,8 @@
       <c r="BE24">
         <v>1000</v>
       </c>
-      <c r="BF24" t="s">
-        <v>200</v>
+      <c r="BF24">
+        <v>33186586</v>
       </c>
       <c r="BG24">
         <v>48322</v>
@@ -6256,17 +5656,17 @@
       <c r="BI24">
         <v>58805</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>242</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>284</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>326</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>368</v>
+      <c r="BJ24">
+        <v>1.227495478</v>
+      </c>
+      <c r="BK24">
+        <v>1.227495488</v>
+      </c>
+      <c r="BL24">
+        <v>1.227495477</v>
+      </c>
+      <c r="BM24">
+        <v>1.227495487</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6441,8 +5841,8 @@
       <c r="BE25">
         <v>1000</v>
       </c>
-      <c r="BF25" t="s">
-        <v>201</v>
+      <c r="BF25">
+        <v>33186547</v>
       </c>
       <c r="BG25">
         <v>28592</v>
@@ -6453,17 +5853,17 @@
       <c r="BI25">
         <v>58805</v>
       </c>
-      <c r="BJ25" t="s">
-        <v>243</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>285</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>327</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>369</v>
+      <c r="BJ25">
+        <v>1.227495804</v>
+      </c>
+      <c r="BK25">
+        <v>1.227495814</v>
+      </c>
+      <c r="BL25">
+        <v>1.227495803</v>
+      </c>
+      <c r="BM25">
+        <v>1.227495813</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6638,8 +6038,8 @@
       <c r="BE26">
         <v>1000</v>
       </c>
-      <c r="BF26" t="s">
-        <v>202</v>
+      <c r="BF26">
+        <v>33190492</v>
       </c>
       <c r="BG26">
         <v>4231683</v>
@@ -6650,17 +6050,17 @@
       <c r="BI26">
         <v>58805</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>244</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>286</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>328</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>370</v>
+      <c r="BJ26">
+        <v>1.227563578</v>
+      </c>
+      <c r="BK26">
+        <v>1.227563623</v>
+      </c>
+      <c r="BL26">
+        <v>1.227563662</v>
+      </c>
+      <c r="BM26">
+        <v>1.227563587</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6835,8 +6235,8 @@
       <c r="BE27">
         <v>1000</v>
       </c>
-      <c r="BF27" t="s">
-        <v>203</v>
+      <c r="BF27">
+        <v>33186571</v>
       </c>
       <c r="BG27">
         <v>69821</v>
@@ -6847,17 +6247,17 @@
       <c r="BI27">
         <v>58805</v>
       </c>
-      <c r="BJ27" t="s">
-        <v>245</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>287</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>329</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>371</v>
+      <c r="BJ27">
+        <v>1.227495586</v>
+      </c>
+      <c r="BK27">
+        <v>1.227495596</v>
+      </c>
+      <c r="BL27">
+        <v>1.227495585</v>
+      </c>
+      <c r="BM27">
+        <v>1.227495595</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -7032,8 +6432,8 @@
       <c r="BE28">
         <v>1000</v>
       </c>
-      <c r="BF28" t="s">
-        <v>204</v>
+      <c r="BF28">
+        <v>33186594</v>
       </c>
       <c r="BG28">
         <v>256171</v>
@@ -7044,17 +6444,17 @@
       <c r="BI28">
         <v>58805</v>
       </c>
-      <c r="BJ28" t="s">
-        <v>246</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>288</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>330</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>372</v>
+      <c r="BJ28">
+        <v>1.227495368</v>
+      </c>
+      <c r="BK28">
+        <v>1.227495378</v>
+      </c>
+      <c r="BL28">
+        <v>1.227495367</v>
+      </c>
+      <c r="BM28">
+        <v>1.227495377</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -7229,8 +6629,8 @@
       <c r="BE29">
         <v>1000</v>
       </c>
-      <c r="BF29" t="s">
-        <v>205</v>
+      <c r="BF29">
+        <v>33186647</v>
       </c>
       <c r="BG29">
         <v>18563</v>
@@ -7241,17 +6641,17 @@
       <c r="BI29">
         <v>58805</v>
       </c>
-      <c r="BJ29" t="s">
-        <v>247</v>
-      </c>
-      <c r="BK29" t="s">
-        <v>289</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>331</v>
-      </c>
-      <c r="BM29" t="s">
-        <v>373</v>
+      <c r="BJ29">
+        <v>1.227496564</v>
+      </c>
+      <c r="BK29">
+        <v>1.227496574</v>
+      </c>
+      <c r="BL29">
+        <v>1.227496563</v>
+      </c>
+      <c r="BM29">
+        <v>1.227496573</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7426,8 +6826,8 @@
       <c r="BE30">
         <v>1000</v>
       </c>
-      <c r="BF30" t="s">
-        <v>206</v>
+      <c r="BF30">
+        <v>33186566</v>
       </c>
       <c r="BG30">
         <v>256373</v>
@@ -7438,17 +6838,17 @@
       <c r="BI30">
         <v>58805</v>
       </c>
-      <c r="BJ30" t="s">
-        <v>248</v>
-      </c>
-      <c r="BK30" t="s">
-        <v>290</v>
-      </c>
-      <c r="BL30" t="s">
-        <v>332</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>374</v>
+      <c r="BJ30">
+        <v>1.227495695</v>
+      </c>
+      <c r="BK30">
+        <v>1.227495705</v>
+      </c>
+      <c r="BL30">
+        <v>1.227495694</v>
+      </c>
+      <c r="BM30">
+        <v>1.227495704</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7623,8 +7023,8 @@
       <c r="BE31">
         <v>1000</v>
       </c>
-      <c r="BF31" t="s">
-        <v>207</v>
+      <c r="BF31">
+        <v>33186628</v>
       </c>
       <c r="BG31">
         <v>58344</v>
@@ -7635,17 +7035,17 @@
       <c r="BI31">
         <v>58805</v>
       </c>
-      <c r="BJ31" t="s">
-        <v>249</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>291</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>333</v>
-      </c>
-      <c r="BM31" t="s">
-        <v>375</v>
+      <c r="BJ31">
+        <v>1.227496672</v>
+      </c>
+      <c r="BK31">
+        <v>1.227496682</v>
+      </c>
+      <c r="BL31">
+        <v>1.227496671</v>
+      </c>
+      <c r="BM31">
+        <v>1.227496681</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7820,8 +7220,8 @@
       <c r="BE32">
         <v>1000</v>
       </c>
-      <c r="BF32" t="s">
-        <v>208</v>
+      <c r="BF32">
+        <v>33179707</v>
       </c>
       <c r="BG32">
         <v>58943</v>
@@ -7832,17 +7232,17 @@
       <c r="BI32">
         <v>58805</v>
       </c>
-      <c r="BJ32" t="s">
-        <v>250</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>334</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>376</v>
+      <c r="BJ32">
+        <v>1.227393337</v>
+      </c>
+      <c r="BK32">
+        <v>1.227393382</v>
+      </c>
+      <c r="BL32">
+        <v>1.227393421</v>
+      </c>
+      <c r="BM32">
+        <v>1.227393346</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -8017,8 +7417,8 @@
       <c r="BE33">
         <v>250</v>
       </c>
-      <c r="BF33" t="s">
-        <v>209</v>
+      <c r="BF33">
+        <v>33182525</v>
       </c>
       <c r="BG33">
         <v>52480964</v>
@@ -8029,17 +7429,17 @@
       <c r="BI33">
         <v>58805</v>
       </c>
-      <c r="BJ33" t="s">
-        <v>251</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>293</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>335</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>377</v>
+      <c r="BJ33">
+        <v>1.227432093</v>
+      </c>
+      <c r="BK33">
+        <v>1.227432032</v>
+      </c>
+      <c r="BL33">
+        <v>1.227432092</v>
+      </c>
+      <c r="BM33">
+        <v>1.227432103</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -8214,8 +7614,8 @@
       <c r="BE34">
         <v>580</v>
       </c>
-      <c r="BF34" t="s">
-        <v>210</v>
+      <c r="BF34">
+        <v>33182528</v>
       </c>
       <c r="BG34">
         <v>44785</v>
@@ -8226,17 +7626,17 @@
       <c r="BI34">
         <v>58805</v>
       </c>
-      <c r="BJ34" t="s">
-        <v>252</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>294</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>336</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>378</v>
+      <c r="BJ34">
+        <v>1.227431952</v>
+      </c>
+      <c r="BK34">
+        <v>1.227431891</v>
+      </c>
+      <c r="BL34">
+        <v>1.227431951</v>
+      </c>
+      <c r="BM34">
+        <v>1.227431962</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8411,8 +7811,8 @@
       <c r="BE35">
         <v>1000</v>
       </c>
-      <c r="BF35" t="s">
-        <v>211</v>
+      <c r="BF35">
+        <v>33186506</v>
       </c>
       <c r="BG35">
         <v>5875376</v>
@@ -8423,17 +7823,17 @@
       <c r="BI35">
         <v>58805</v>
       </c>
-      <c r="BJ35" t="s">
-        <v>253</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>295</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>337</v>
-      </c>
-      <c r="BM35" t="s">
-        <v>379</v>
+      <c r="BJ35">
+        <v>1.227495912</v>
+      </c>
+      <c r="BK35">
+        <v>1.227495922</v>
+      </c>
+      <c r="BL35">
+        <v>1.227495911</v>
+      </c>
+      <c r="BM35">
+        <v>1.227495921</v>
       </c>
     </row>
     <row r="36" spans="1:65">
@@ -8608,8 +8008,8 @@
       <c r="BE36">
         <v>1000</v>
       </c>
-      <c r="BF36" t="s">
-        <v>212</v>
+      <c r="BF36">
+        <v>33191253</v>
       </c>
       <c r="BG36">
         <v>5180320</v>
@@ -8620,17 +8020,17 @@
       <c r="BI36">
         <v>58805</v>
       </c>
-      <c r="BJ36" t="s">
-        <v>254</v>
-      </c>
-      <c r="BK36" t="s">
-        <v>296</v>
-      </c>
-      <c r="BL36" t="s">
-        <v>338</v>
-      </c>
-      <c r="BM36" t="s">
-        <v>380</v>
+      <c r="BJ36">
+        <v>1.227576957</v>
+      </c>
+      <c r="BK36">
+        <v>1.227577002</v>
+      </c>
+      <c r="BL36">
+        <v>1.227577041</v>
+      </c>
+      <c r="BM36">
+        <v>1.227576966</v>
       </c>
     </row>
     <row r="37" spans="1:65">
@@ -8805,8 +8205,8 @@
       <c r="BE37">
         <v>1000</v>
       </c>
-      <c r="BF37" t="s">
-        <v>213</v>
+      <c r="BF37">
+        <v>33177374</v>
       </c>
       <c r="BG37">
         <v>194513</v>
@@ -8817,17 +8217,17 @@
       <c r="BI37">
         <v>58805</v>
       </c>
-      <c r="BJ37" t="s">
-        <v>255</v>
-      </c>
-      <c r="BK37" t="s">
-        <v>297</v>
-      </c>
-      <c r="BL37" t="s">
-        <v>339</v>
-      </c>
-      <c r="BM37" t="s">
-        <v>381</v>
+      <c r="BJ37">
+        <v>1.227353284</v>
+      </c>
+      <c r="BK37">
+        <v>1.227353329</v>
+      </c>
+      <c r="BL37">
+        <v>1.227353368</v>
+      </c>
+      <c r="BM37">
+        <v>1.227353293</v>
       </c>
     </row>
     <row r="38" spans="1:65">
@@ -9002,8 +8402,8 @@
       <c r="BE38">
         <v>1000</v>
       </c>
-      <c r="BF38" t="s">
-        <v>214</v>
+      <c r="BF38">
+        <v>33177372</v>
       </c>
       <c r="BG38">
         <v>5178272</v>
@@ -9014,17 +8414,17 @@
       <c r="BI38">
         <v>58805</v>
       </c>
-      <c r="BJ38" t="s">
-        <v>256</v>
-      </c>
-      <c r="BK38" t="s">
-        <v>298</v>
-      </c>
-      <c r="BL38" t="s">
-        <v>340</v>
-      </c>
-      <c r="BM38" t="s">
-        <v>382</v>
+      <c r="BJ38">
+        <v>1.227353374</v>
+      </c>
+      <c r="BK38">
+        <v>1.227353419</v>
+      </c>
+      <c r="BL38">
+        <v>1.227353458</v>
+      </c>
+      <c r="BM38">
+        <v>1.227353383</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -9199,8 +8599,8 @@
       <c r="BE39">
         <v>1000</v>
       </c>
-      <c r="BF39" t="s">
-        <v>215</v>
+      <c r="BF39">
+        <v>33177358</v>
       </c>
       <c r="BG39">
         <v>1496989</v>
@@ -9211,17 +8611,17 @@
       <c r="BI39">
         <v>58805</v>
       </c>
-      <c r="BJ39" t="s">
-        <v>257</v>
-      </c>
-      <c r="BK39" t="s">
-        <v>299</v>
-      </c>
-      <c r="BL39" t="s">
-        <v>341</v>
-      </c>
-      <c r="BM39" t="s">
-        <v>383</v>
+      <c r="BJ39">
+        <v>1.227352578</v>
+      </c>
+      <c r="BK39">
+        <v>1.227352623</v>
+      </c>
+      <c r="BL39">
+        <v>1.227352662</v>
+      </c>
+      <c r="BM39">
+        <v>1.227352587</v>
       </c>
     </row>
     <row r="40" spans="1:65">
@@ -9396,8 +8796,8 @@
       <c r="BE40">
         <v>1000</v>
       </c>
-      <c r="BF40" t="s">
-        <v>216</v>
+      <c r="BF40">
+        <v>33177356</v>
       </c>
       <c r="BG40">
         <v>17304</v>
@@ -9408,17 +8808,17 @@
       <c r="BI40">
         <v>58805</v>
       </c>
-      <c r="BJ40" t="s">
-        <v>258</v>
-      </c>
-      <c r="BK40" t="s">
-        <v>300</v>
-      </c>
-      <c r="BL40" t="s">
-        <v>342</v>
-      </c>
-      <c r="BM40" t="s">
-        <v>384</v>
+      <c r="BJ40">
+        <v>1.227352668</v>
+      </c>
+      <c r="BK40">
+        <v>1.227352713</v>
+      </c>
+      <c r="BL40">
+        <v>1.227352752</v>
+      </c>
+      <c r="BM40">
+        <v>1.227352677</v>
       </c>
     </row>
     <row r="41" spans="1:65">
@@ -9593,8 +8993,8 @@
       <c r="BE41">
         <v>1000</v>
       </c>
-      <c r="BF41" t="s">
-        <v>217</v>
+      <c r="BF41">
+        <v>33191638</v>
       </c>
       <c r="BG41">
         <v>7055314</v>
@@ -9605,17 +9005,17 @@
       <c r="BI41">
         <v>58805</v>
       </c>
-      <c r="BJ41" t="s">
-        <v>259</v>
-      </c>
-      <c r="BK41" t="s">
-        <v>301</v>
-      </c>
-      <c r="BL41" t="s">
-        <v>343</v>
-      </c>
-      <c r="BM41" t="s">
-        <v>385</v>
+      <c r="BJ41">
+        <v>1.227584714</v>
+      </c>
+      <c r="BK41">
+        <v>1.227584759</v>
+      </c>
+      <c r="BL41">
+        <v>1.227584798</v>
+      </c>
+      <c r="BM41">
+        <v>1.227584723</v>
       </c>
     </row>
     <row r="42" spans="1:65">
@@ -9635,163 +9035,163 @@
         <v>176</v>
       </c>
       <c r="F42">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="G42">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="H42">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="I42">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="J42">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K42">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L42">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="M42">
+        <v>2.02</v>
+      </c>
+      <c r="N42">
+        <v>1.98</v>
+      </c>
+      <c r="O42">
+        <v>2.02</v>
+      </c>
+      <c r="P42">
+        <v>1.8</v>
+      </c>
+      <c r="Q42">
         <v>1.88</v>
       </c>
-      <c r="N42">
+      <c r="R42">
         <v>2.14</v>
       </c>
-      <c r="O42">
-        <v>2.32</v>
-      </c>
-      <c r="P42">
-        <v>1.85</v>
-      </c>
-      <c r="Q42">
-        <v>1.97</v>
-      </c>
-      <c r="R42">
-        <v>2.02</v>
-      </c>
       <c r="S42">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="T42">
+        <v>12</v>
+      </c>
+      <c r="U42">
+        <v>13</v>
+      </c>
+      <c r="V42">
+        <v>12.5</v>
+      </c>
+      <c r="W42">
+        <v>13.5</v>
+      </c>
+      <c r="X42">
+        <v>22</v>
+      </c>
+      <c r="Y42">
+        <v>24</v>
+      </c>
+      <c r="Z42">
+        <v>55</v>
+      </c>
+      <c r="AA42">
+        <v>65</v>
+      </c>
+      <c r="AB42">
+        <v>9.6</v>
+      </c>
+      <c r="AC42">
         <v>10.5</v>
       </c>
-      <c r="U42">
+      <c r="AD42">
+        <v>7.4</v>
+      </c>
+      <c r="AE42">
+        <v>7.8</v>
+      </c>
+      <c r="AF42">
+        <v>13.5</v>
+      </c>
+      <c r="AG42">
         <v>14.5</v>
       </c>
-      <c r="V42">
+      <c r="AH42">
+        <v>36</v>
+      </c>
+      <c r="AI42">
+        <v>40</v>
+      </c>
+      <c r="AJ42">
+        <v>13</v>
+      </c>
+      <c r="AK42">
+        <v>14</v>
+      </c>
+      <c r="AL42">
+        <v>10</v>
+      </c>
+      <c r="AM42">
         <v>10.5</v>
-      </c>
-      <c r="W42">
-        <v>14</v>
-      </c>
-      <c r="X42">
-        <v>19</v>
-      </c>
-      <c r="Y42">
-        <v>26</v>
-      </c>
-      <c r="Z42">
-        <v>48</v>
-      </c>
-      <c r="AA42">
-        <v>70</v>
-      </c>
-      <c r="AB42">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC42">
-        <v>10</v>
-      </c>
-      <c r="AD42">
-        <v>6.8</v>
-      </c>
-      <c r="AE42">
-        <v>9.4</v>
-      </c>
-      <c r="AF42">
-        <v>12.5</v>
-      </c>
-      <c r="AG42">
-        <v>17</v>
-      </c>
-      <c r="AH42">
-        <v>32</v>
-      </c>
-      <c r="AI42">
-        <v>48</v>
-      </c>
-      <c r="AJ42">
-        <v>13.5</v>
-      </c>
-      <c r="AK42">
-        <v>18.5</v>
-      </c>
-      <c r="AL42">
-        <v>10.5</v>
-      </c>
-      <c r="AM42">
-        <v>14.5</v>
       </c>
       <c r="AN42">
         <v>16.5</v>
       </c>
       <c r="AO42">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AP42">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AQ42">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AR42">
-        <v>5.1</v>
+        <v>27</v>
       </c>
       <c r="AS42">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AT42">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU42">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AV42">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AW42">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AX42">
-        <v>4.7</v>
+        <v>60</v>
       </c>
       <c r="AY42">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AZ42">
-        <v>4.1</v>
+        <v>16</v>
       </c>
       <c r="BA42">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="BB42">
-        <v>4.3</v>
+        <v>34</v>
       </c>
       <c r="BC42">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="BD42">
-        <v>4.8</v>
+        <v>25</v>
       </c>
       <c r="BE42">
         <v>1000</v>
       </c>
       <c r="BF42" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="BG42">
         <v>198139</v>
@@ -9803,16 +9203,16 @@
         <v>58805</v>
       </c>
       <c r="BJ42" t="s">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="BK42" t="s">
-        <v>302</v>
+        <v>182</v>
       </c>
       <c r="BL42" t="s">
-        <v>344</v>
+        <v>184</v>
       </c>
       <c r="BM42" t="s">
-        <v>386</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:65">
@@ -9832,31 +9232,31 @@
         <v>177</v>
       </c>
       <c r="F43">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="G43">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H43">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="I43">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="J43">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="K43">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="L43">
         <v>1.52</v>
       </c>
       <c r="M43">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="N43">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="O43">
         <v>2.94</v>
@@ -9865,130 +9265,130 @@
         <v>2.06</v>
       </c>
       <c r="Q43">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="R43">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="S43">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="T43">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="U43">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="V43">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="W43">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="X43">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y43">
         <v>14.5</v>
       </c>
       <c r="Z43">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AA43">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AB43">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC43">
+        <v>10.5</v>
+      </c>
+      <c r="AD43">
+        <v>6.4</v>
+      </c>
+      <c r="AE43">
+        <v>7</v>
+      </c>
+      <c r="AF43">
         <v>11.5</v>
       </c>
-      <c r="AD43">
-        <v>6.2</v>
-      </c>
-      <c r="AE43">
-        <v>8</v>
-      </c>
-      <c r="AF43">
+      <c r="AG43">
+        <v>14</v>
+      </c>
+      <c r="AH43">
+        <v>26</v>
+      </c>
+      <c r="AI43">
+        <v>40</v>
+      </c>
+      <c r="AJ43">
+        <v>18</v>
+      </c>
+      <c r="AK43">
+        <v>23</v>
+      </c>
+      <c r="AL43">
+        <v>13.5</v>
+      </c>
+      <c r="AM43">
+        <v>17</v>
+      </c>
+      <c r="AN43">
+        <v>21</v>
+      </c>
+      <c r="AO43">
+        <v>26</v>
+      </c>
+      <c r="AP43">
+        <v>46</v>
+      </c>
+      <c r="AQ43">
+        <v>75</v>
+      </c>
+      <c r="AR43">
+        <v>46</v>
+      </c>
+      <c r="AS43">
+        <v>80</v>
+      </c>
+      <c r="AT43">
+        <v>40</v>
+      </c>
+      <c r="AU43">
+        <v>980</v>
+      </c>
+      <c r="AV43">
         <v>10.5</v>
       </c>
-      <c r="AG43">
-        <v>13.5</v>
-      </c>
-      <c r="AH43">
-        <v>6</v>
-      </c>
-      <c r="AI43">
-        <v>36</v>
-      </c>
-      <c r="AJ43">
-        <v>16.5</v>
-      </c>
-      <c r="AK43">
-        <v>27</v>
-      </c>
-      <c r="AL43">
-        <v>14</v>
-      </c>
-      <c r="AM43">
+      <c r="AW43">
+        <v>95</v>
+      </c>
+      <c r="AX43">
+        <v>11</v>
+      </c>
+      <c r="AY43">
+        <v>210</v>
+      </c>
+      <c r="AZ43">
+        <v>10</v>
+      </c>
+      <c r="BA43">
         <v>980</v>
       </c>
-      <c r="AN43">
-        <v>19</v>
-      </c>
-      <c r="AO43">
-        <v>980</v>
-      </c>
-      <c r="AP43">
-        <v>6.6</v>
-      </c>
-      <c r="AQ43">
-        <v>70</v>
-      </c>
-      <c r="AR43">
-        <v>6.8</v>
-      </c>
-      <c r="AS43">
-        <v>90</v>
-      </c>
-      <c r="AT43">
-        <v>6.6</v>
-      </c>
-      <c r="AU43">
-        <v>70</v>
-      </c>
-      <c r="AV43">
-        <v>6.8</v>
-      </c>
-      <c r="AW43">
-        <v>100</v>
-      </c>
-      <c r="AX43">
-        <v>7</v>
-      </c>
-      <c r="AY43">
-        <v>220</v>
-      </c>
-      <c r="AZ43">
-        <v>6.8</v>
-      </c>
-      <c r="BA43">
-        <v>90</v>
-      </c>
       <c r="BB43">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="BC43">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="BD43">
-        <v>7.4</v>
+        <v>15</v>
       </c>
       <c r="BE43">
         <v>1000</v>
       </c>
       <c r="BF43" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="BG43">
         <v>816112</v>
@@ -10000,16 +9400,16 @@
         <v>58805</v>
       </c>
       <c r="BJ43" t="s">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="BK43" t="s">
-        <v>303</v>
+        <v>183</v>
       </c>
       <c r="BL43" t="s">
-        <v>345</v>
+        <v>185</v>
       </c>
       <c r="BM43" t="s">
-        <v>387</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-16.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="178">
   <si>
     <t>League</t>
   </si>
@@ -548,36 +548,6 @@
   </si>
   <si>
     <t>Santa Fe</t>
-  </si>
-  <si>
-    <t>33191364</t>
-  </si>
-  <si>
-    <t>33190985</t>
-  </si>
-  <si>
-    <t>1.227583199</t>
-  </si>
-  <si>
-    <t>1.227573784</t>
-  </si>
-  <si>
-    <t>1.227583183</t>
-  </si>
-  <si>
-    <t>1.227573829</t>
-  </si>
-  <si>
-    <t>1.227583198</t>
-  </si>
-  <si>
-    <t>1.227573868</t>
-  </si>
-  <si>
-    <t>1.227583208</t>
-  </si>
-  <si>
-    <t>1.227573793</t>
   </si>
 </sst>
 </file>
@@ -9190,8 +9160,8 @@
       <c r="BE42">
         <v>1000</v>
       </c>
-      <c r="BF42" t="s">
-        <v>178</v>
+      <c r="BF42">
+        <v>33191364</v>
       </c>
       <c r="BG42">
         <v>198139</v>
@@ -9202,17 +9172,17 @@
       <c r="BI42">
         <v>58805</v>
       </c>
-      <c r="BJ42" t="s">
-        <v>180</v>
-      </c>
-      <c r="BK42" t="s">
-        <v>182</v>
-      </c>
-      <c r="BL42" t="s">
-        <v>184</v>
-      </c>
-      <c r="BM42" t="s">
-        <v>186</v>
+      <c r="BJ42">
+        <v>1.227583199</v>
+      </c>
+      <c r="BK42">
+        <v>1.227583183</v>
+      </c>
+      <c r="BL42">
+        <v>1.227583198</v>
+      </c>
+      <c r="BM42">
+        <v>1.227583208</v>
       </c>
     </row>
     <row r="43" spans="1:65">
@@ -9387,8 +9357,8 @@
       <c r="BE43">
         <v>1000</v>
       </c>
-      <c r="BF43" t="s">
-        <v>179</v>
+      <c r="BF43">
+        <v>33190985</v>
       </c>
       <c r="BG43">
         <v>816112</v>
@@ -9399,17 +9369,17 @@
       <c r="BI43">
         <v>58805</v>
       </c>
-      <c r="BJ43" t="s">
-        <v>181</v>
-      </c>
-      <c r="BK43" t="s">
-        <v>183</v>
-      </c>
-      <c r="BL43" t="s">
-        <v>185</v>
-      </c>
-      <c r="BM43" t="s">
-        <v>187</v>
+      <c r="BJ43">
+        <v>1.227573784</v>
+      </c>
+      <c r="BK43">
+        <v>1.227573829</v>
+      </c>
+      <c r="BL43">
+        <v>1.227573868</v>
+      </c>
+      <c r="BM43">
+        <v>1.227573793</v>
       </c>
     </row>
   </sheetData>
